--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[('maxim', 0.972361147403717), ('Compassionately', 0.9699296951293945), ('Snapped', 0.9691413044929504)]</t>
+          <t>[('maxim', 0.9718399047851562), ('Compassionately', 0.9692185521125793), ('Snapped', 0.9691187143325806), ('gulley', 0.9670982956886292), ('upperclassmen', 0.9642496109008789)]</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[('138', 0.9998723268508911), ('Plants', 0.9997149109840393), ('Galatians', 0.9988000392913818)]</t>
+          <t>[('138', 0.9998399019241333), ('Plants', 0.9997149109840393), ('Galatians', 0.9983706474304199), ('Innumerable', 0.9976478219032288), ('Noon', 0.9969152808189392)]</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[('hath', 0.9999966025352478), ('manages', 0.9999961256980896), ("Israel's", 0.9999946355819702)]</t>
+          <t>[('pushers', 0.9999973773956299), ('retina', 0.9999958276748657), ('conquests', 0.999994158744812), ('hath', 0.9999885559082031), ('Film', 0.9999875426292419)]</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[('cent', 0.3435174822807312), ('per', 0.32645079493522644), ('12', 0.3064720928668976)]</t>
+          <t>[('cent', 0.33334049582481384), ('per', 0.3224829137325287), ('17', 0.30193576216697693), ('-', 0.29606470465660095), ('23', 0.29006507992744446)]</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[('Af', 0.41820237040519714), ('temperature', 0.35252922773361206), ('low', 0.33670586347579956)]</t>
+          <t>[('Af', 0.3824728727340698), ('temperature', 0.329413503408432), ('low', 0.31763070821762085), ('8', 0.2906905710697174), ('Oct.', 0.27630725502967834)]</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[('Astronomy', 0.23241232335567474), ('Somersaults', 0.21369518339633942), ('Repayment', 0.21110214293003082)]</t>
+          <t>[('Astronomy', 0.23241232335567474), ('Somersaults', 0.21369518339633942), ('Repayment', 0.21110214293003082), ('Subsystems', 0.20564503967761993), ('Unglazed', 0.19089239835739136)]</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[('you', 0.3467177450656891), ("I'll", 0.3077709376811981), ("can't", 0.30634522438049316)]</t>
+          <t>[('you', 0.38585975766181946), ("I'll", 0.328254371881485), ('You', 0.3276984691619873), ('going', 0.32244759798049927), ("can't", 0.31723761558532715)]</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[('Backbends', 0.23184992372989655), ('Syllabification', 0.22739273309707642), ('Undergraduates', 0.2153121829032898)]</t>
+          <t>[('Backbends', 0.23184992372989655), ('Syllabification', 0.22739273309707642), ('Undergraduates', 0.2153121829032898), ('Movies', 0.21037890017032623), ('Status-roles', 0.2015407234430313)]</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[('would', 0.28070563077926636), ('should', 0.26608338952064514), ('were', 0.25881582498550415)]</t>
+          <t>[('would', 0.30614206194877625), ('should', 0.28253480792045593), ('were', 0.2701959013938904), ('could', 0.27007582783699036), ('will', 0.2640346884727478)]</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[('certain', 0.4937046468257904), ('reason', 0.4769816994667053), ('explanation', 0.47626861929893494)]</t>
+          <t>[('certain', 0.48919185996055603), ('reason', 0.4846247732639313), ('explanation', 0.4711354970932007), ('instance', 0.46174687147140503), ('considerations', 0.4456568956375122)]</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[('1952', 0.46331787109375), ('1951', 0.42266952991485596), ('published', 0.42243531346321106)]</t>
+          <t>[('1952', 0.46995699405670166), ('1951', 0.4252064526081085), ('published', 0.4203646779060364), ('chairman', 0.4182456433773041), ('1910', 0.4158989191055298)]</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[('Thirty-three', 0.24105128645896912), ('Vacations', 0.22202067077159882), ('Thirty-six', 0.19920122623443604)]</t>
+          <t>[('Thirty-three', 0.24105128645896912), ('Vacations', 0.22202067077159882), (')', 0.2004760354757309), ('Thirty-six', 0.19920122623443604), ('Movies', 0.18306128680706024)]</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[('Status-roles', 0.2402079999446869), ('Advantages', 0.2387181669473648), ('Plants', 0.23301182687282562)]</t>
+          <t>[('Status-roles', 0.24153001606464386), ('Advantages', 0.2387181669473648), ('Plants', 0.23301182687282562), ('Norms', 0.2244107872247696), ('Proprietorship', 0.21959713101387024)]</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[('A5', 0.2838036119937897), ('University', 0.2562718689441681), ('New', 0.2498728632926941)]</t>
+          <t>[('A5', 0.2692832052707672), ('University', 0.25693750381469727), ('New', 0.24622759222984314), ('York', 0.24502870440483093), ('Phenothiazine', 0.22726383805274963)]</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[('Backbends', 0.23240289092063904), ('Socialization', 0.23055262863636017), ('Boonton', 0.21842016279697418)]</t>
+          <t>[('Socialization', 0.234010711312294), ('Backbends', 0.23240289092063904), ('(', 0.22883249819278717), ('Boonton', 0.21842016279697418), ('Sulfaquinoxaline', 0.21051502227783203)]</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[('with', 0.3685291111469269), ('so', 0.3463231027126312), ('friends', 0.31141629815101624)]</t>
+          <t>[('with', 0.3373621702194214), ('so', 0.33359017968177795), ('friends', 0.30752265453338623), ('yet', 0.2681586742401123), ('Keeeerist', 0.2619163393974304)]</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[('Swiftly', 0.4313565790653229), ('sorcery', 0.4196184277534485), ('Beaming', 0.413454532623291)]</t>
+          <t>[('Swiftly', 0.4292955696582794), ('Club', 0.4228249192237854), ('sorcery', 0.41498345136642456), ('McCormack', 0.4091343283653259), ('Golda', 0.40429502725601196)]</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[('City', 0.2717956602573395), ('during', 0.2706577777862549), ('Assessment', 0.2613050639629364)]</t>
+          <t>[('City', 0.27052727341651917), ('during', 0.26398542523384094), ('school', 0.25804588198661804), ('Assessment', 0.25640344619750977), ('cent', 0.2500293552875519)]</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[('He', 0.42622318863868713), ('Expected', 0.3497541546821594), ('Transitional', 0.343239963054657)]</t>
+          <t>[('He', 0.42944467067718506), ('Transitional', 0.3363687992095947), ('Exploratory', 0.3353998064994812), ('Antisubmarine', 0.3327891230583191), ('job', 0.33134394884109497)]</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[('South', 0.41809722781181335), ('West', 0.41476336121559143), ('United', 0.4111701250076294)]</t>
+          <t>[('United', 0.433284193277359), ('West', 0.40806397795677185), ('States', 0.4077922999858856), ('Britain', 0.4071269929409027), ('South', 0.4062904119491577)]</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[('?', 0.3203315734863281), ('does', 0.31885021924972534), ('For', 0.31797271966934204)]</t>
+          <t>[('does', 0.32979312539100647), ('For', 0.3259827792644501), ('?', 0.32334229350090027), ('In', 0.3180961608886719), ('do', 0.28509974479675293)]</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[('Subjects', 0.24867695569992065), ('Trim-your-own-franks', 0.22502169013023376), ('Eligibility', 0.18357530236244202)]</t>
+          <t>[('Subjects', 0.24867695569992065), ('Trim-your-own-franks', 0.22502169013023376), ('Eligibility', 0.18357530236244202), ('Astronomy', 0.16289006173610687), ('Deterrent', 0.15411949157714844)]</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[('Requirements', 0.23360611498355865), ('Burke-Rostagno', 0.22658593952655792), ('Undergraduates', 0.22066661715507507)]</t>
+          <t>[('Requirements', 0.23360611498355865), ('Burke-Rostagno', 0.22658593952655792), ('Undergraduates', 0.22066661715507507), ('Boonton', 0.19639968872070312), ('Meats', 0.19162075221538544)]</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[('take', 0.46583056449890137), ('this', 0.46214041113853455), ('ready', 0.43150004744529724)]</t>
+          <t>[('take', 0.446767657995224), ('this', 0.43678784370422363), ('our', 0.4291359484195709), ('ready', 0.4095950722694397), ('able', 0.4080210030078888)]</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[('Subdued', 0.44263792037963867), ('An', 0.3287724256515503), ('Your', 0.3165186643600464)]</t>
+          <t>[('Subdued', 0.4442462623119354), ('An', 0.3250844478607178), ('Your', 0.31297048926353455), ('Bananas', 0.2975688576698303), ('Praises', 0.288265198469162)]</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[('houses', 0.4935826063156128), ('range', 0.4884948432445526), ('large', 0.4629213213920593)]</t>
+          <t>[('houses', 0.5279740691184998), ('large', 0.4969692528247833), ('range', 0.4955904483795166), ('units', 0.4814852774143219), ('spenders', 0.47273921966552734)]</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[('program', 0.39663931727409363), ('study', 0.36348095536231995), ('basis', 0.3532055914402008)]</t>
+          <t>[('program', 0.3928290009498596), ('such', 0.3580302298069), ('basis', 0.35653916001319885), ('study', 0.3503709137439728), ('period', 0.3498494029045105)]</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[('Morale', 0.32669293880462646), ('four', 0.3261452317237854), ('Hyena', 0.3218909502029419)]</t>
+          <t>[('four', 0.3354186713695526), ('Morale', 0.3198626637458801), ('three', 0.3131108582019806), ('Hyena', 0.30534276366233826), ('Three', 0.2618117332458496)]</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[('end', 0.28874412178993225), ('process', 0.2862347364425659), ('image', 0.270922988653183)]</t>
+          <t>[('end', 0.30907583236694336), ('process', 0.2722848951816559), ('period', 0.2600821852684021), ('carbon', 0.2546446621417999), ('any', 0.25316891074180603)]</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[('her', 0.2651820182800293), ('Sulfaquinoxaline', 0.24229522049427032), ('their', 0.2418716847896576)]</t>
+          <t>[('her', 0.2853497862815857), ('their', 0.25909242033958435), ('Then', 0.2351837307214737), ('Sulfaquinoxaline', 0.23443345725536346), ('Nightclubs', 0.21910162270069122)]</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[('where', 0.4040302634239197), ('whose', 0.3005606532096863), ('without', 0.2902984023094177)]</t>
+          <t>[('where', 0.4379846751689911), ('from', 0.33508941531181335), ('inside', 0.3260664939880371), ('All', 0.321271151304245), ('in', 0.31482428312301636)]</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[('Months', 0.26207032799720764), ('Trim-your-own-franks', 0.21813149750232697), ('Thirty-four', 0.2114863097667694)]</t>
+          <t>[('Months', 0.26207032799720764), ('Trim-your-own-franks', 0.21813149750232697), ('Thirty-four', 0.2114863097667694), ('Poultry', 0.20669692754745483), ('Achieving', 0.20447573065757751)]</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[('high', 0.29403042793273926), ('added', 0.2907584011554718), ('provide', 0.2737019956111908)]</t>
+          <t>[('added', 0.27905046939849854), ('rate', 0.2730802893638611), ('Achieving', 0.26037290692329407), ('Oxygen', 0.2501039206981659), ('high', 0.24920019507408142)]</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[('Thirty-six', 0.2757660746574402), ('Nightclubs', 0.22618362307548523), ('7-5', 0.2220524549484253)]</t>
+          <t>[('Thirty-six', 0.2757660746574402), ('Nightclubs', 0.22618362307548523), ('7-5', 0.2220524549484253), ('Secretion', 0.21412396430969238), ('Dairy', 0.20289555191993713)]</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[('Court', 0.2940016984939575), ('Thirty-six', 0.2728946805000305), ('Nightclubs', 0.21819210052490234)]</t>
+          <t>[('Court', 0.3159867525100708), ('Thirty-six', 0.2728946805000305), ('Nightclubs', 0.21819210052490234), ('Undergraduates', 0.2149232178926468), ('Proprietorship', 0.20119069516658783)]</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[('economic', 0.44831258058547974), ('available', 0.4481448531150818), ('funds', 0.42268142104148865)]</t>
+          <t>[('available', 0.4423653781414032), ('economic', 0.4215456247329712), ('funds', 0.40362614393234253), ('due', 0.3922051191329956), ('future', 0.38776522874832153)]</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[('William', 0.2880592346191406), ('Mrs.', 0.2787284851074219), ('Attorney', 0.2778671979904175)]</t>
+          <t>[('Mrs.', 0.308856725692749), ('Mr.', 0.2982458472251892), ('William', 0.29063713550567627), ('A.', 0.2742103338241577), ('Attorney', 0.27021050453186035)]</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[('Meats', 0.23889155685901642), ('Goddammit', 0.22959581017494202), ('Trim-your-own-franks', 0.22546739876270294)]</t>
+          <t>[('Meats', 0.23889155685901642), ('Goddammit', 0.22959581017494202), ('Trim-your-own-franks', 0.22546739876270294), ('Status-roles', 0.22425799071788788), ('Norms', 0.22208477556705475)]</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>[('Secretary', 0.31648772954940796), ('follows', 0.3158833980560303), ('Footnotes', 0.31225264072418213)]</t>
+          <t>[('Secretary', 0.33558762073516846), ('Footnotes', 0.31173035502433777), ('follows', 0.30953845381736755), ('C', 0.30121439695358276), ('Commerce', 0.29737022519111633)]</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[('late', 0.3709033131599426), ('early', 0.34688276052474976), ('became', 0.3456389904022217)]</t>
+          <t>[('late', 0.3753708004951477), ('became', 0.3719256520271301), ('early', 0.3610897362232208), ('happened', 0.35253626108169556), ('came', 0.3355352282524109)]</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[('an', 0.33893007040023804), ('Nearness', 0.3038727641105652), ('soothingly', 0.30223768949508667)]</t>
+          <t>[('soothingly', 0.3074408173561096), ('an', 0.29953235387802124), ('Rak', 0.2944185733795166), ('noncommittally', 0.28847742080688477), ('Nearness', 0.2826879918575287)]</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[('more', 0.2867187559604645), ('ever', 0.2846145033836365), ('No', 0.277556836605072)]</t>
+          <t>[('No', 0.33965805172920227), ('ever', 0.3230866491794586), ('more', 0.30890610814094543), ('nothing', 0.30505669116973877), ('anything', 0.30012497305870056)]</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>[('Mrs.', 0.2805470824241638), ('asked', 0.2660560607910156), ('no', 0.2574714720249176)]</t>
+          <t>[('no', 0.2960320711135864), ('Mrs.', 0.28436630964279175), ('asked', 0.2691728174686432), ('Plants', 0.246857687830925), ('Nightclubs', 0.2390473634004593)]</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>[("you're", 0.3309316039085388), ('tell', 0.3228447735309601), ('many', 0.3224523663520813)]</t>
+          <t>[('many', 0.32187631726264954), ("you're", 0.3190072476863861), ('tell', 0.315369188785553), ("don't", 0.29733067750930786), ("they're", 0.2969515025615692)]</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>[('thing', 0.3650211989879608), ('hear', 0.36090531945228577), ('spirit', 0.3450876474380493)]</t>
+          <t>[('hear', 0.37223100662231445), ('thing', 0.37089574337005615), ('know', 0.3484710156917572), ('spirit', 0.34207165241241455), ('That', 0.34062933921813965)]</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>[('been', 0.3430282175540924), ('example', 0.26465579867362976), ('recently', 0.2632404863834381)]</t>
+          <t>[('been', 0.3383764326572418), ('recently', 0.2661157548427582), ('example', 0.2599256932735443), ('or', 0.25907769799232483), ('named', 0.24999818205833435)]</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>[('Of', 0.30009207129478455), ('be', 0.27357402443885803), ('at', 0.2619391679763794)]</t>
+          <t>[('Of', 0.2933746576309204), ('be', 0.2776663303375244), ('Achieving', 0.26161453127861023), ('at', 0.2531804144382477), ('are', 0.2439824491739273)]</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>[('played', 0.457583487033844), ('looks', 0.4572470486164093), ('But', 0.45616868138313293)]</t>
+          <t>[('very', 0.46922779083251953), ('But', 0.45869022607803345), ('played', 0.4585006833076477), ('looks', 0.4502887427806854), ('And', 0.43961188197135925)]</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>[('own', 0.24910296499729156), ('private', 0.23917104303836823), ('Frame', 0.23584944009780884)]</t>
+          <t>[('own', 0.25514623522758484), ('Frame', 0.23584944009780884), ('private', 0.23513443768024445), ('Impatiently', 0.23030687868595123), ('5.4', 0.22425812482833862)]</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>[('against', 0.3887399435043335), ('gun', 0.3459736108779907), ('clay', 0.3412996530532837)]</t>
+          <t>[('against', 0.3520466089248657), ('or', 0.33298027515411377), ('gun', 0.31744384765625), ('side', 0.31701424717903137), ('shoulders', 0.3147146701812744)]</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>[('Subsystems', 0.24672231078147888), ('Trim-your-own-franks', 0.22964060306549072), ('Calves', 0.21520383656024933)]</t>
+          <t>[('Subsystems', 0.24672231078147888), ('Trim-your-own-franks', 0.22964060306549072), ('Calves', 0.21520383656024933), ('Advantages', 0.1887025535106659), ('Astronomy', 0.18629662692546844)]</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[('others', 0.39252787828445435), ('something', 0.35475993156433105), ('it', 0.3509059548377991)]</t>
+          <t>[('others', 0.37445980310440063), ('something', 0.35578247904777527), ('felt', 0.35048708319664), ("he'd", 0.33586791157722473), ('at', 0.32345372438430786)]</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[('Oxidation', 0.31560054421424866), ('2.1.6', 0.3016260862350464), ('Coolest', 0.294366717338562)]</t>
+          <t>[('Oxidation', 0.2977076768875122), ('2.1.6', 0.29641127586364746), ('its', 0.28787997364997864), ('Expresses', 0.2865161895751953), ('Coolest', 0.27951687574386597)]</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>[('annelid', 0.5447914004325867), ('maddalena', 0.5430718064308167), ('polychaete', 0.5371790528297424)]</t>
+          <t>[('annelid', 0.5447914004325867), ('maddalena', 0.5430718064308167), ('polychaete', 0.5371790528297424), ('ares', 0.5224992036819458), ('herculaneum', 0.5216749310493469)]</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[('romijn', 0.537285566329956), ('mt.', 0.5346792340278625), ('hochstedt', 0.5063329339027405)]</t>
+          <t>[('romijn', 0.537285566329956), ('mt.', 0.5346792340278625), ('hochstedt', 0.5063329339027405), ('mt', 0.4984099864959717), ('oly', 0.480762243270874)]</t>
         </is>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>[('gigabytes', 0.571408212184906), ('grischa', 0.535726010799408), ('hamanoshima', 0.5080550312995911)]</t>
+          <t>[('gigabytes', 0.571408212184906), ('grischa', 0.535726010799408), ('hamanoshima', 0.5080550312995911), ('paudel', 0.5032250881195068), ('mb', 0.5022054314613342)]</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>[('zhendong', 0.5479691028594971), ('shanda', 0.5455926060676575), ('everland', 0.5443891882896423)]</t>
+          <t>[('zhendong', 0.5479691028594971), ('shanda', 0.5455926060676575), ('everland', 0.5443891882896423), ('azahar', 0.5419960021972656), ('xinxin', 0.5416185259819031)]</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>[('turkman', 0.5364875793457031), ('digambar', 0.5064058303833008), ('orthonormal', 0.5019894242286682)]</t>
+          <t>[('turkman', 0.5364875793457031), ('digambar', 0.5064058303833008), ('orthonormal', 0.5019894242286682), ('gastropod', 0.5018616914749146), ('5-foot-10', 0.4994046986103058)]</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>[('brca2', 0.6179360747337341), ('incest', 0.6168777942657471), ('brca1', 0.5817631483078003)]</t>
+          <t>[('brca2', 0.6179360747337341), ('incest', 0.6168777942657471), ('brca1', 0.5817631483078003), ('cystic', 0.579386293888092), ('ingeborg', 0.5643564462661743)]</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>[('bhairava', 0.6261086463928223), ('degeneracy', 0.6097018718719482), ('ohms', 0.607295036315918)]</t>
+          <t>[('bhairava', 0.6261086463928223), ('degeneracy', 0.6097018718719482), ('ohms', 0.607295036315918), ('radians', 0.5943209528923035), ('rhombic', 0.582046627998352)]</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>[('69-55', 0.5880637168884277), ('62-54', 0.5349146723747253), ('80-65', 0.53483647108078)]</t>
+          <t>[('69-55', 0.5880637168884277), ('62-54', 0.5349146723747253), ('80-65', 0.53483647108078), ('66-56', 0.5320127606391907), ('shinkolobwe', 0.531042218208313)]</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>[('immunization', 0.6014491319656372), ('chi-square', 0.5973672866821289), ('visitbritain', 0.580228328704834)]</t>
+          <t>[('immunization', 0.6014491319656372), ('chi-square', 0.5973672866821289), ('visitbritain', 0.580228328704834), ('spillers', 0.5581629872322083), ('balakian', 0.5492417216300964)]</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>[('opiate', 0.5877267122268677), ('coolio', 0.5624062418937683), ('antiproliferative', 0.5582107901573181)]</t>
+          <t>[('opiate', 0.5877267122268677), ('coolio', 0.5624062418937683), ('antiproliferative', 0.5582107901573181), ('mezcal', 0.5560910701751709), ('infused', 0.5560238361358643)]</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>[('evertsen', 0.5176348686218262), ('fluence', 0.49363529682159424), ('herdez', 0.49167972803115845)]</t>
+          <t>[('evertsen', 0.5176348686218262), ('fluence', 0.49363529682159424), ('herdez', 0.49167972803115845), ('floorball', 0.4892650246620178), ('thunderjet', 0.48913440108299255)]</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>[('beefheart', 0.5614416599273682), ('eo', 0.5300647020339966), ('ozzie', 0.5251882672309875)]</t>
+          <t>[('beefheart', 0.5614416599273682), ('eo', 0.5300647020339966), ('ozzie', 0.5251882672309875), ('rayearth', 0.5217841863632202), ('primus', 0.5215550661087036)]</t>
         </is>
       </c>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>[('kastellorizo', 0.6283429861068726), ('baranof', 0.613915741443634), ('masirah', 0.5897539258003235)]</t>
+          <t>[('kastellorizo', 0.6283429861068726), ('baranof', 0.613915741443634), ('masirah', 0.5897539258003235), ('vinalhaven', 0.580522358417511), ('hawaiians', 0.5756410360336304)]</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>[('100-ton', 0.5732096433639526), ('cosmonauts', 0.5729037523269653), ('smasher', 0.5666475892066956)]</t>
+          <t>[('100-ton', 0.5732096433639526), ('cosmonauts', 0.5729037523269653), ('smasher', 0.5666475892066956), ('shoulder-mounted', 0.5661104321479797), ('18-member', 0.5602397918701172)]</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>[('550,000', 0.4885357916355133), ('unsolved', 0.47484514117240906), ('450,000', 0.4744264781475067)]</t>
+          <t>[('550,000', 0.4885357916355133), ('unsolved', 0.47484514117240906), ('450,000', 0.4744264781475067), ('9,929', 0.47178471088409424), ('thur.', 0.4708364009857178)]</t>
         </is>
       </c>
     </row>
@@ -1831,7 +1831,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>[('darken', 0.4816843569278717), ('ruapehu', 0.4711722433567047), ('revert', 0.46398892998695374)]</t>
+          <t>[('darken', 0.4816843569278717), ('ruapehu', 0.4711722433567047), ('revert', 0.46398892998695374), ('skibo', 0.463101327419281), ('redivide', 0.4586760997772217)]</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>[('sobers', 0.5742148160934448), ('feuer', 0.5311782956123352), ('monatomic', 0.5109812021255493)]</t>
+          <t>[('sobers', 0.5742148160934448), ('feuer', 0.5311782956123352), ('monatomic', 0.5109812021255493), ('assynt', 0.49624553322792053), ('3,250-strong', 0.4961993396282196)]</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>[('biopreparat', 0.5911931395530701), ('sazi', 0.5447002649307251), ('mayak', 0.5124562978744507)]</t>
+          <t>[('biopreparat', 0.5911931395530701), ('sazi', 0.5447002649307251), ('mayak', 0.5124562978744507), ('mihama', 0.5101156234741211), ('spyder', 0.509446382522583)]</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>[('jungels', 0.5734698176383972), ('snezana', 0.5724309086799622), ('ljiljana', 0.5715720653533936)]</t>
+          <t>[('jungels', 0.5734698176383972), ('snezana', 0.5724309086799622), ('ljiljana', 0.5715720653533936), ('bemberg', 0.5671383738517761), ('kiecolt', 0.5641995072364807)]</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>[('babylonia', 0.5655237436294556), ('sora', 0.5541504621505737), ('mesopotamia', 0.5306262969970703)]</t>
+          <t>[('babylonia', 0.5655237436294556), ('sora', 0.5541504621505737), ('mesopotamia', 0.5306262969970703), ('abd', 0.5205387473106384), ('nara', 0.5194173455238342)]</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>[('frightfest', 0.5830358266830444), ('53-05-76-50', 0.5588841438293457), ('whitehall', 0.5468424558639526)]</t>
+          <t>[('frightfest', 0.5830358266830444), ('53-05-76-50', 0.5588841438293457), ('whitehall', 0.5468424558639526), ('toosi', 0.5425448417663574), ('auctions', 0.5308969020843506)]</t>
         </is>
       </c>
     </row>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>[('aimee', 0.5437299609184265), ('kathrada', 0.535534679889679), ('omnimedia', 0.5252199769020081)]</t>
+          <t>[('aimee', 0.5437299609184265), ('kathrada', 0.535534679889679), ('omnimedia', 0.5252199769020081), ('jeanette', 0.509452223777771), ('shabazz', 0.49071890115737915)]</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>[('dusted', 0.5306118130683899), ('blueberries', 0.5121913552284241), ('zawahri', 0.5079659223556519)]</t>
+          <t>[('dusted', 0.5306118130683899), ('blueberries', 0.5121913552284241), ('zawahri', 0.5079659223556519), ('spliced', 0.5024394989013672), ('sahariar', 0.5000283718109131)]</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>[('hangout', 0.5842410922050476), ('hangouts', 0.5423781871795654), ('harajuku', 0.5221965312957764)]</t>
+          <t>[('hangout', 0.5842410922050476), ('hangouts', 0.5423781871795654), ('harajuku', 0.5221965312957764), ('caters', 0.5114090442657471), ('freno', 0.504963219165802)]</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>[('mayank', 0.5595824718475342), ('abhi', 0.5498999953269958), ('sandhya', 0.5467039346694946)]</t>
+          <t>[('mayank', 0.5595824718475342), ('abhi', 0.5498999953269958), ('sandhya', 0.5467039346694946), ('bashō', 0.5398316383361816), ('yali', 0.5305584669113159)]</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>[('1,761', 0.6137067675590515), ('1/14', 0.6007323265075684), ('tules', 0.5932069420814514)]</t>
+          <t>[('1,761', 0.6137067675590515), ('1/14', 0.6007323265075684), ('tules', 0.5932069420814514), ('5,6', 0.5927116870880127), ('2,782', 0.5859532952308655)]</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>[('a.williams', 0.6263729929924011), ('baraja', 0.5828909277915955), ('grella', 0.5772355794906616)]</t>
+          <t>[('a.williams', 0.6263729929924011), ('baraja', 0.5828909277915955), ('grella', 0.5772355794906616), ('tandi', 0.5749233365058899), ('bkeefe', 0.5704938173294067)]</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>[('glows', 0.5824268460273743), ('faintly', 0.5746657848358154), ('glowed', 0.5730653405189514)]</t>
+          <t>[('glows', 0.5824268460273743), ('faintly', 0.5746657848358154), ('glowed', 0.5730653405189514), ('silvery', 0.5308278799057007), ('glistening', 0.5295017957687378)]</t>
         </is>
       </c>
     </row>
@@ -2091,7 +2091,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>[('bg4', 0.5611006021499634), ('bd7', 0.5451667308807373), ('ooooooooo', 0.544822096824646)]</t>
+          <t>[('bg4', 0.5611006021499634), ('bd7', 0.5451667308807373), ('ooooooooo', 0.544822096824646), ('estas', 0.5379530787467957), ('oooooo', 0.5296211242675781)]</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>[('messinian', 0.5504154562950134), ('inrush', 0.5306781530380249), ('693,000', 0.5282276272773743)]</t>
+          <t>[('messinian', 0.5504154562950134), ('inrush', 0.5306781530380249), ('693,000', 0.5282276272773743), ('0.8230', 0.5098860859870911), ('bavadra', 0.5078355073928833)]</t>
         </is>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>[('well', 0.8572679162025452), ('.', 0.8424108028411865), ('which', 0.8294384479522705)]</t>
+          <t>[('well', 0.8572679162025452), ('.', 0.8424108028411865), ('which', 0.8294384479522705), ('and', 0.8243818283081055), ('with', 0.8238006234169006)]</t>
         </is>
       </c>
     </row>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>[('twiddle', 0.5926726460456848), ('craning', 0.5589139461517334), ('craned', 0.5445497035980225)]</t>
+          <t>[('twiddle', 0.5926726460456848), ('craning', 0.5589139461517334), ('craned', 0.5445497035980225), ('behinds', 0.536069393157959), ('whet', 0.5189620852470398)]</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>[('meisler', 0.5802463889122009), ('apexes', 0.5801969170570374), ('mutianyu', 0.5740140676498413)]</t>
+          <t>[('meisler', 0.5802463889122009), ('apexes', 0.5801969170570374), ('mutianyu', 0.5740140676498413), ('redel', 0.5526068210601807), ('wallsten', 0.5502543449401855)]</t>
         </is>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>[('2.3-billion', 0.607780396938324), ('7.5-million', 0.5766394138336182), ('biscuit', 0.5698747634887695)]</t>
+          <t>[('2.3-billion', 0.607780396938324), ('7.5-million', 0.5766394138336182), ('biscuit', 0.5698747634887695), ('whopper', 0.5692630410194397), ('2,500-mile', 0.5627748370170593)]</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>[('boykins', 0.5361371636390686), ('jalosjos', 0.5133564472198486), ('macdonnell', 0.49950242042541504)]</t>
+          <t>[('boykins', 0.5361371636390686), ('jalosjos', 0.5133564472198486), ('macdonnell', 0.49950242042541504), ('kafeel', 0.4982677698135376), ('mukhlas', 0.49644359946250916)]</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>[('burlap', 0.5715247392654419), ('gunny', 0.5320993065834045), ('glass-reinforced', 0.5094344615936279)]</t>
+          <t>[('burlap', 0.5715247392654419), ('gunny', 0.5320993065834045), ('glass-reinforced', 0.5094344615936279), ('resealable', 0.5028495192527771), ('power-ups', 0.4915027618408203)]</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>[('angiogram', 0.5183877944946289), ('b-3', 0.47472184896469116), ('beatified', 0.473165363073349)]</t>
+          <t>[('angiogram', 0.5183877944946289), ('b-3', 0.47472184896469116), ('beatified', 0.473165363073349), ('cd/dvd', 0.4671713709831238), ('a-side', 0.4648788869380951)]</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>[('runnerup', 0.5572258234024048), ('broodmares', 0.5125890374183655), ('skied', 0.4931185841560364)]</t>
+          <t>[('runnerup', 0.5572258234024048), ('broodmares', 0.5125890374183655), ('skied', 0.4931185841560364), ('egorova', 0.4821650981903076), ('impressively', 0.47981905937194824)]</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>[('permanente', 0.5763069987297058), ('sutter', 0.544994056224823), ('arb', 0.5306894779205322)]</t>
+          <t>[('permanente', 0.5763069987297058), ('sutter', 0.544994056224823), ('arb', 0.5306894779205322), ('medco', 0.5254906415939331), ('brocado', 0.5216808319091797)]</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>[('brotherhoods', 0.566076397895813), ('edilberto', 0.5544040203094482), ('siddiqul', 0.5341393351554871)]</t>
+          <t>[('brotherhoods', 0.566076397895813), ('edilberto', 0.5544040203094482), ('siddiqul', 0.5341393351554871), ('krapf', 0.525740385055542), ('lasi', 0.525139570236206)]</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>[('ceh', 0.5955694913864136), ('http', 0.5275408625602722), ('ogg', 0.5272748470306396)]</t>
+          <t>[('ceh', 0.5955694913864136), ('http', 0.5275408625602722), ('ogg', 0.5272748470306396), ('beneteau', 0.5176844000816345), ('lazetic', 0.510016679763794)]</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>[('leguizamo', 0.5200987458229065), ('crayton', 0.5061852931976318), ('janeane', 0.5015721321105957)]</t>
+          <t>[('leguizamo', 0.5200987458229065), ('crayton', 0.5061852931976318), ('janeane', 0.5015721321105957), ('horan', 0.5001272559165955), ('gere', 0.4880199432373047)]</t>
         </is>
       </c>
     </row>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>[('zueva', 0.506072998046875), ('fessel', 0.5034160017967224), ('1,614', 0.48669764399528503)]</t>
+          <t>[('zueva', 0.506072998046875), ('fessel', 0.5034160017967224), ('1,614', 0.48669764399528503), ('karatchenia', 0.48364999890327454), ('xugang', 0.4826308786869049)]</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>[('bettors', 0.5773895978927612), ('bums', 0.5538735389709473), ('pupillage', 0.5424821972846985)]</t>
+          <t>[('bettors', 0.5773895978927612), ('bums', 0.5538735389709473), ('pupillage', 0.5424821972846985), ('quandaries', 0.5397492051124573), ('reassessments', 0.5344664454460144)]</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>[('virologist', 0.5614608526229858), ('azahari', 0.5550292134284973), ('eaters', 0.5490596890449524)]</t>
+          <t>[('virologist', 0.5614608526229858), ('azahari', 0.5550292134284973), ('eaters', 0.5490596890449524), ('raku', 0.5346584916114807), ('bove', 0.532164990901947)]</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>[('55-11-3022-2965', 0.5952934622764587), ('http://www.nejm.org', 0.5601642727851868), ('carnivorans', 0.5369901061058044)]</t>
+          <t>[('55-11-3022-2965', 0.5952934622764587), ('http://www.nejm.org', 0.5601642727851868), ('carnivorans', 0.5369901061058044), ('325-member', 0.5347350835800171), ('xxxvi', 0.527995765209198)]</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>[("d'aubisque", 0.5930005311965942), ('pre-title', 0.5374639630317688), ('downshift', 0.5315674543380737)]</t>
+          <t>[("d'aubisque", 0.5930005311965942), ('pre-title', 0.5374639630317688), ('downshift', 0.5315674543380737), ('creep', 0.5284016728401184), ('time-series', 0.5155901312828064)]</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>[('counterproposal', 0.6237666606903076), ('11-player', 0.5731511116027832), ('offical', 0.5663949251174927)]</t>
+          <t>[('counterproposal', 0.6237666606903076), ('11-player', 0.5731511116027832), ('offical', 0.5663949251174927), ('nfl.com', 0.5643452405929565), ('counteroffer', 0.5603799223899841)]</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>[('galvez', 0.5307609438896179), ('kallas', 0.5305451154708862), ('siim', 0.524175226688385)]</t>
+          <t>[('galvez', 0.5307609438896179), ('kallas', 0.5305451154708862), ('siim', 0.524175226688385), ('bola', 0.5211463570594788), ('história', 0.5129830241203308)]</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,6007 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>[('seaney', 0.5539608001708984), ('palmerino', 0.5416008830070496), ('rappaport', 0.5392966866493225)]</t>
+          <t>[('seaney', 0.5539608001708984), ('palmerino', 0.5416008830070496), ('rappaport', 0.5392966866493225), ('ackerson', 0.5362064838409424), ('swonk', 0.5357873439788818)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>[('apocalyptic_prophesy', 0.25545403361320496), ('Mythica', 0.24702315032482147), ('sits_enthroned', 0.2460421621799469), ('wcg', 0.2410862147808075), ('Setup_Tool', 0.2381514608860016)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>[('Shin_Dong', 0.2600080668926239), ('Hyon', 0.2565069794654846), ('Millett', 0.25122904777526855), ('Kwon', 0.24837884306907654), ('Achar', 0.24678219854831696)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>2</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>[('CAS_arbitrators', 0.24584147334098816), ('Mark_Kornblau_spokesman', 0.2425474226474762), ('particle_accelerator', 0.23843829333782196), ('Mithi_Virdi', 0.23499388992786407), ('atomic_arsenals', 0.23447048664093018)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>3</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>[('Ginsburgs', 0.28120988607406616), ('Dinty_Moore', 0.2802680432796478), ('jelly_sandwiches', 0.2788439691066742), ('heartier_appetites', 0.2741965055465698), ("they'd", 0.2711051106452942)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>4</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>[('Exemplary_Teaching', 0.2654290795326233), ('Terrell_Vinson', 0.26017850637435913), ('Onyekwe', 0.2501116991043091), ('pivot_Anthony_Calvillo', 0.2497139871120453), ('Brent_Shepheard_Shawnigan_Lake', 0.24609020352363586)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>5</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>[('souce', 0.25930410623550415), ('parapsychologist', 0.2569226026535034), ('Mortal_Strike', 0.25309377908706665), ('Gastric_Band_fitted', 0.24423688650131226), ('nail_technician', 0.24341823160648346)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>6</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>[('Gevry', 0.26388412714004517), ('thetime', 0.24515363574028015), ('http://www.stltoday.com', 0.23895815014839172), ('conditional_verbs_such', 0.2387876808643341), ('Zhang_Yan', 0.238490030169487)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>7</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>[('muffle', 0.2552945911884308), ('stefania.bianchi_@_dowjones.com', 0.24341003596782684), ('Oakhill_Renaissance', 0.24278008937835693), ('By_DARRIN_STINEMAN', 0.24070341885089874), ('Oakhill_Renaissance_Place', 0.23784227669239044)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>8</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>[('costliest_natural_disasters', 0.2718510925769806), ('counterparty_defaults', 0.26494428515434265), ('mute_button', 0.25971269607543945), ('closely_scrutinized', 0.2582113742828369), ('Bernankes', 0.25675898790359497)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>9</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>[('unleashing_torrents', 0.2936334013938904), ('Hadda_Street', 0.2672741413116455), ('wooden_spoon_favorites', 0.266804039478302), ('Ferrari_Kimi_Räikkönen', 0.2636004686355591), ('tommies', 0.26016125082969666)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>10</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>[('Annabell', 0.25444820523262024), ('fuzzy_wuzzy_angels', 0.24601849913597107), ('Lance_Corporal', 0.2429032027721405), ('Redcaps', 0.2389613837003708), ('Grant_Rovelli', 0.2385101318359375)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>11</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>[('IBD_TIPP_Presidential', 0.2921983003616333), ('Low_Latency_Trading', 0.28157249093055725), ('Dianne_Clements', 0.2571551203727722), ('IFSD', 0.25402548909187317), ('volumes_MBPD', 0.25273337960243225)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>12</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>[('Bloomberg_Businessweek', 0.24836696684360504), ('Corinne_Gudovic', 0.23661206662654877), ('Quotient', 0.23249366879463196), ('gumbo', 0.2320517897605896), ('Times_PicayuneA', 0.2312038093805313)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>13</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>[('ethno_religious_conflicts', 0.2616589069366455), ('Imam_Husayn_AS', 0.2608575224876404), ('Camorra_rounding', 0.2603427469730377), ('Rev._Raniero_Cantalamessa', 0.2596310079097748), ('rousing_oratory', 0.258526086807251)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>14</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>[('LoDo', 0.2358478307723999), ('Crandon', 0.23427729308605194), ('Voicemail', 0.2288651168346405), ('Duluth_MN', 0.22782258689403534), ('GLENWOOD', 0.2244618684053421)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>15</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>[('Achilles_tendon_injury', 0.26217588782310486), ('torn_hamstring', 0.25670045614242554), ('Morelon', 0.24721263349056244), ('grossly_hypocritical', 0.24689283967018127), ('Ngerem', 0.24526023864746094)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>16</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>[('Concurred', 0.27399200201034546), ('Allesandra', 0.26725444197654724), ('Hotel_Finisterra', 0.25790393352508545), ('Alcota', 0.2548384368419647), ('Figgins_inexplicably', 0.2539046108722687)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>17</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>[('Crouzon_syndrome', 0.28294962644577026), ('attunes', 0.2694498300552368), ('Gory_Guerrero', 0.26433175802230835), ('wrinkly_skin', 0.26204389333724976), ('spoke_eloquently', 0.2613159418106079)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>18</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>[('Patrick_Rishe', 0.2576139271259308), ('Allan_Saxe', 0.2486100196838379), ('Bob_Rotella', 0.24750864505767822), ('Rozelle', 0.24093881249427795), ('til_dusk', 0.23414954543113708)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>19</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>[('Savoi', 0.2721732556819916), ('Shs_##million', 0.2701532244682312), ('El_Shamy', 0.26512840390205383), ('Manresa', 0.26065149903297424), ('Christine_Benninger', 0.2557995021343231)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>20</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>[('Anastasia_Dogaru_brains', 0.26176947355270386), ('HAVANA_Cuba_Roman_Catholic', 0.2561476230621338), ('interethnic_hatred', 0.2557850182056427), ('Bear_Arms_CCRKBA', 0.25500479340553284), ('speaker_Ricardo_Alarcon', 0.25250646471977234)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>21</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>[('activist_Dror_Elimelech', 0.2708801031112671), ('Jon_Bilger', 0.2659246623516083), ('Wolf_Klinz', 0.26299813389778137), ('playwright_Karel_Capek', 0.2617179751396179), ('Emanuele_Alfano', 0.2606528401374817)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>22</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>[('PR_CITIZEN', 0.29907307028770447), ('hahaha', 0.2961438000202179), ('YES_YES', 0.2927011251449585), ('decongest_overcrowded', 0.2914726734161377), ('##It', 0.28983643651008606)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>23</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>[('Education_AQE', 0.2523568868637085), ('Quickness', 0.25157833099365234), ('Yanbu', 0.24894115328788757), ('Limits', 0.2393510788679123), ('Anthony_Chickillo', 0.2376098781824112)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>24</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>[('Anthony_Ampong', 0.27441421151161194), ('Soldini', 0.2529726028442383), ('PIS', 0.25164011120796204), ('###kms', 0.24847526848316193), ('children_charity_Kidscape', 0.2478272020816803)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>25</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>[('BAIER', 0.26481136679649353), ('Ryssdal', 0.2552456557750702), ('GHARIB', 0.25382351875305176), ('SUSIE_GHARIB', 0.25044944882392883), ('Publisher_Katharine_Weymouth', 0.24990065395832062)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>26</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>[('CORONA_CA_MARKET', 0.2507525682449341), ('SAN_RAMON_CA_MARKET', 0.24011050164699554), ('Pandemic_Studios', 0.22533652186393738), ('SAN_BRUNO_CA_MARKET', 0.2243107408285141), ('HUNTINGTON_BEACH_CA_MARKET', 0.22336652874946594)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>27</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>[('Performax', 0.280274361371994), ('STEAM', 0.27530843019485474), ('Geared', 0.2740190923213959), ('EXOTIC_DANCER', 0.2718527913093567), ('sportsboat', 0.2717038691043854)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>28</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>[('teenager_Daniel_Morcombe', 0.26826250553131104), ('Toyota_Hilux_Surf', 0.26418882608413696), ('Kevin_Kammer', 0.2631374001502991), ('Anton_Pious', 0.25863024592399597), ('Constable_Geoff_Mantler', 0.25768715143203735)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>29</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>[('LAKELAND_Fla.', 0.2745063304901123), ('substitution', 0.2499663531780243), ('KISSIMMEE_FLA', 0.23878560960292816), ('substituting', 0.2373191863298416), ('section_##IA', 0.23351256549358368)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>30</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>[('Ariadna_Jove_Marti', 0.22844386100769043), ('ultra_rightwing', 0.22512321174144745), ('Jack_Teitel', 0.22191102802753448), ('Shuey', 0.22030094265937805), ('Paul_Maineri', 0.21853594481945038)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>31</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>[('cricks', 0.23084159195423126), ('Fender_Deluxe', 0.22263957560062408), ('FTN_Midwest_Securities', 0.21684697270393372), ('grap', 0.21608757972717285), ('Yusuke_Seta', 0.21583247184753418)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>32</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>[('Jens_Zemke', 0.24340787529945374), ('Krasimir', 0.23577284812927246), ('Bizzarri', 0.23495857417583466), ('Schmelzel', 0.23368977010250092), ('pommel_horse_parallel', 0.2319009155035019)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>33</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>[('Chris_Lencheski', 0.2703084945678711), ('Judge_Harry_Pregerson', 0.25510862469673157), ('underlined', 0.25188714265823364), ('door_SX4_Crossover', 0.24522748589515686), ('Sheikh_Abdullah', 0.24225938320159912)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>34</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>[('Choice_Award', 0.2689279615879059), ('astronaut_Deke_Slayton', 0.268319308757782), ('Reinmuth', 0.2676597535610199), ('Jez_Fanstone', 0.25326627492904663), ('controller_Anatoly_Muravyev', 0.24741999804973602)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>35</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>[('OMAHA_Warren_Buffett', 0.22711481153964996), ('intent', 0.22467747330665588), ('SAN_ANTONIO_TEX', 0.21809113025665283), ('intention', 0.21721120178699493), ('NASHVILLE_Tenn._Trace_Adkins', 0.21287749707698822)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>36</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>[('brigadier_general', 0.2853345572948456), ('Chesty_Puller', 0.2684931457042694), ('Laquidara', 0.2664916217327118), ('Barbours', 0.26526546478271484), ('Winns', 0.26508864760398865)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>37</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>[('administrator_Soren_Jessen', 0.2525218725204468), ('Rep._Mary_Mascher', 0.23966239392757416), ('Ludley', 0.23891140520572662), ('Oky', 0.2364012449979782), ('Screen', 0.2359917163848877)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>38</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>[('biggie', 0.2538028359413147), ('Chunxiao_gas', 0.2529473304748535), ('Burkel', 0.2501847743988037), ('scalping', 0.24430011212825775), ('Hundred_Monkeys', 0.2410580962896347)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>39</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>[('Older_whiter', 0.28355371952056885), ('By_MICHELE_DERUS', 0.2623724639415741), ('Hurricane_Henriette_plowed', 0.2619258165359497), ('noisy_clutter', 0.25779879093170166), ('Extrapolate', 0.2560068666934967)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>40</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>[('Goebbels_propaganda', 0.25703564286231995), ('selective_herbicides', 0.25521811842918396), ('reseeds', 0.2550601363182068), ('recents', 0.2519260346889496), ('nickname_Dragon_Slayer', 0.2515765428543091)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>41</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>[('Monuments_Men', 0.24851307272911072), ('Senator_Landrieu', 0.24839557707309723), ('Nanes_Delorme', 0.24397338926792145), ('RGW', 0.2402191460132599), ('HEF', 0.23329785466194153)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>42</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>[('belt_sander', 0.2886463403701782), ('mek', 0.2826535999774933), ('rookie_JR_Hildebrand', 0.2803441286087036), ('Molotov', 0.27914920449256897), ('undisputed_welterweight_championship', 0.2770010232925415)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>43</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>[('AdoreStudio', 0.34279665350914), ('CBD_COP', 0.29880475997924805), ('Translate.org.za', 0.2903347313404083), ('Cyril_Neveu', 0.2858305275440216), ('Lempel', 0.283638596534729)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>44</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>[('protruding_ribs', 0.24167166650295258), ('EPA_MAXIM', 0.23830915987491608), ('crew_Cedric_Bonin', 0.2328759729862213), ('breastbones', 0.22667288780212402), ('Mohican_haircut', 0.2220391035079956)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>45</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>[('Kamwood_Tom', 0.24235795438289642), ('shrill_insipid_mess', 0.23903432488441467), ('Clay_Eals', 0.2305067926645279), ('Stockton_plain_jane', 0.22616589069366455), ('furious_chariot', 0.22273875772953033)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>46</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>[('unsterilized_dogs', 0.23331648111343384), ('Ed_DiPrete', 0.22554196417331696), ('businessman_Keith_Fimian', 0.22215919196605682), ('attorney_Jay_Abramowitch', 0.21667763590812683), ('threeyear', 0.2123577743768692)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>47</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>[('Martha_Stewart_Living_Omnimedia', 0.24357521533966064), ('MOX', 0.2369086593389511), ('enriching', 0.23208999633789062), ('FRANKFORT_Kentucky', 0.229104682803154), ('Lake_Champlain', 0.22753259539604187)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>48</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>[('Corkey_Fornof', 0.29402923583984375), ('Dodge_SRT_4', 0.29386454820632935), ('sitcom_Ally_McBeal', 0.2738903760910034), ('bulging_fenders', 0.2722436189651489), ('quad_exhaust_pipes', 0.27192777395248413)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>49</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>[('SUN_MICROSYSTEMS_INC._CONDENSED', 0.28087541460990906), ('Ritz_Carlton_Sarasota', 0.2742151916027069), ('Arean', 0.27377986907958984), ('Habanos_Festival', 0.2723712921142578), ('NBA_Predraft_Camp', 0.2628687024116516)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>50</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>[('Mercantile_Exchange_lean_hogs', 0.2544260621070862), ('Tuol_Sambo', 0.24224795401096344), ('Burberry_PLC_BRBY.LN', 0.2321539968252182), ('Attorney_Roslyn_Mauskopf', 0.227469339966774), ('Brenda_Sharton_lawyer', 0.2249831259250641)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>51</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>[('Elena_Camerin', 0.2758665382862091), ('COMPLACENCY', 0.259855180978775), ('PRNewswire_FirstCall_DUSA_Pharmaceuticals', 0.2581987679004669), ('Clevelander_Hotel', 0.25499680638313293), ('batte', 0.25151631236076355)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>52</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>[('trawler_Kuber', 0.27263301610946655), ('Farat', 0.27251797914505005), ('Kula_Kai', 0.27084463834762573), ('Nehrunagar', 0.26912549138069153), ('Jamestown_RI', 0.2688683569431305)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>53</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>[('Fossil_Fools', 0.26339471340179443), ('Point_Stretcher_Rewards', 0.2591775059700012), ('Rosh_Chodesh', 0.25732579827308655), ('BALTIMORE_Stockpickr', 0.25151458382606506), ('iday', 0.23584425449371338)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>54</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>[('CMAA', 0.2576190233230591), ('exasperated_groan', 0.2544407546520233), ('Strive', 0.2534412741661072), ('Jizzy', 0.25286635756492615), ('Smack_Dab', 0.24911655485630035)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>55</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>[('Pica_Slew', 0.27135324478149414), ('Valtteri_Bottas_ART', 0.26916858553886414), ('Cambest', 0.2690046727657318), ('Tarjeta_de', 0.2663988769054413), ('AuthorScript_R', 0.2608810365200043)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>56</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>[('juuuust', 0.24585126340389252), ('Tonka_Toys', 0.23183390498161316), ('Erick_Streelman', 0.2207013964653015), ('leaner_silhouette', 0.21938574314117432), ('choking_hazards', 0.21914272010326385)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>57</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>[('Witz', 0.2409532070159912), ('Alge_Crumpler', 0.23654407262802124), ('Al_Taweel', 0.2350172996520996), ('Jemmah', 0.23490026593208313), ('Dinniyeh', 0.2342248260974884)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>58</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>[('Ubiquitous_Sensor_Networks', 0.24325424432754517), ('KTO', 0.23875229060649872), ('discussing', 0.23730356991291046), ('Hibernia_Terra_Nova', 0.23608170449733734), ('NASDAQ_ENWV', 0.22995656728744507)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>59</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>[('lymph_node', 0.2240026295185089), ('CD4_cells', 0.2156337946653366), ('Touted', 0.21406744420528412), ('gland', 0.21075968444347382), ('shortstop_Julio_Lugo', 0.20840522646903992)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>60</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>[('Lyfe', 0.24039022624492645), ('Jeff_Francouer', 0.2367752492427826), ('Robert_Shetterly', 0.23619689047336578), ('Nasdijj', 0.23177529871463776), ('Jarnow', 0.23166650533676147)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>61</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>[('psychopathic_mass', 0.31253504753112793), ('paramedics_AFD_firefighters', 0.28878912329673767), ('Joybee_GP1_mini', 0.28317245841026306), ('Anerican', 0.27337509393692017), ('underplaying', 0.2630486786365509)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>62</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>[('Human_Rights_ODIHR', 0.23939967155456543), ('psychological', 0.23272421956062317), ('Scotty_Bowman_Glen_Sather', 0.22339661419391632), ('pejorative_implication', 0.21866045892238617), ('Name_Droppings', 0.21665745973587036)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>63</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>[('Yuhn', 0.25310787558555603), ('Maniatis', 0.2362358570098877), ('WINNIPEG', 0.23534132540225983), ('SmartVideo_Technologies_Inc.', 0.23281627893447876), ('WINNIPEG_CP', 0.23171086609363556)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>64</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>[('NUMC', 0.2693149149417877), ('WCBS', 0.2555774450302124), ('obstetrician_gynecologists', 0.2552706003189087), ('JCMC', 0.2476910501718521), ('Unakıtan', 0.23941975831985474)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>65</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>[('pepper_beard', 0.24966025352478027), ('Physically_overmatched', 0.24902775883674622), ('shaved_pate', 0.22763818502426147), ('Alain_Berberian_each', 0.22669710218906403), ('Aaj_television', 0.22606147825717926)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>66</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>[('Damir', 0.26876962184906006), ("AUSTRIA_'S", 0.25826171040534973), ('Styria', 0.25763946771621704), ('Hakan', 0.25422728061676025), ('Hadrovic', 0.253733366727829)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>67</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>[('William_Maisel', 0.2665318250656128), ('OnMedia_NYC', 0.25802257657051086), ('ADCs', 0.2565757632255554), ('CEB_NASDAQ_EXBD', 0.2538824677467346), ('planar_CMOS', 0.25137194991111755)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>68</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>[('Hansard_cradling', 0.2756441533565521), ('Zhao_Danyang', 0.25543808937072754), ('pollster_ICM', 0.2534874677658081), ('Marco_Polo_Davao', 0.25173646211624146), ('Pureheart_China', 0.24888943135738373)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>69</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>[('Björn_Schröder', 0.2642410099506378), ('Carly_Wopat', 0.26311230659484863), ('Volvo_C##_DRIVe', 0.2618330419063568), ('Phan', 0.25428733229637146), ('Golz', 0.2539716958999634)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>70</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>[('heirloom_china', 0.282962828874588), ('Skeins', 0.27634385228157043), ('longneck', 0.2746582329273224), ('daybed', 0.2711479067802429), ('Snuggled', 0.26788410544395447)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>71</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>[('Ghad_party', 0.2504172921180725), ('wearing_headscarfs', 0.24597983062267303), ('khakhi', 0.24465703964233398), ('Populaire', 0.23784086108207703), ('Hashemi_Sunni', 0.2362164407968521)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>72</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>[('Isintok', 0.27782779932022095), ('Siva_Jothy', 0.2660730481147766), ('Imperial_Royale', 0.2653743326663971), ('AIB_Bankcentre', 0.2599274218082428), ('Sin_Beng_Ong', 0.2544102966785431)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>73</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>[('abruptly_canceled', 0.2659054100513458), ('premarital_abstinence', 0.2597717046737671), ('MARIAH_Carey', 0.25487804412841797), ('Hagler', 0.2523937225341797), ('actress_Catherine_Zeta', 0.25120362639427185)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>74</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>[('NORWALK_CONN', 0.24121007323265076), ('Killington', 0.22742699086666107), ('Customary_Marriages_Act', 0.22619520127773285), ('Bald_Mountain', 0.21899743378162384), ('giv_ing', 0.21011453866958618)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>75</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>[('wife_Marie_Claudinette', 0.25086846947669983), ('Marisol_Luna', 0.24951045215129852), ('Urroz', 0.24762393534183502), ('Aol_Weird_News', 0.2406175583600998), ('Newmann', 0.2405870109796524)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>76</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>[('ski_masks_compasses', 0.25862815976142883), ('TUFF', 0.25586122274398804), ('Pinellas', 0.24936847388744354), ('CCMS', 0.24919649958610535), ('Adrenalin', 0.24531497061252594)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>77</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>[('Hojatoleslam_Kazem_Sedighi', 0.261758416891098), ('Laurie_Maggiano', 0.26053285598754883), ('Nordine_Ait_Laoussine', 0.25920647382736206), ('also', 0.2577671706676483), ('Helmut_Sonnenfeldt', 0.256371408700943)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>78</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>[('Counter_Sexual_Assault', 0.2616059482097626), ('al_Jawhar', 0.2541780173778534), ('Wiener_Neustadt_dismissed', 0.25263944268226624), ('Pinkey', 0.24596552550792694), ('Oki', 0.24412715435028076)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>79</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>[('Rasasingham', 0.2738232910633087), ('Dr._Ethan_Halm', 0.2720071077346802), ('disproportionally_affects', 0.27025002241134644), ('asthma_allergic_rhinitis', 0.25892794132232666), ('especially', 0.2587582468986511)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>80</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>[('atop_Mount_Lemmon', 0.2376277893781662), ('Leccy_Tech', 0.23715004324913025), ('ligature_marks', 0.2308083176612854), ('Purchase_Agreements_PPAs', 0.229652538895607), ('BIG_COTTONWOOD_CANYON', 0.2292027771472931)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>81</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>[('Nonis', 0.23453068733215332), ('frustated', 0.22994261980056763), ('Human_Rights_Secretary_Nilmario', 0.22118167579174042), ('spoiled_brat', 0.22111594676971436), ('subway_tunnels', 0.21895374357700348)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>82</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>[('Wrote', 0.24320954084396362), ('Greg_Mauz', 0.23878911137580872), ('Miriam_Kleiman', 0.23725326359272003), ('uncloak', 0.23593665659427643), ('Sharad_Haksar', 0.23230049014091492)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>83</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>[('deferred_annuity', 0.2731800973415375), ('Unfunded_commitments', 0.2565213739871979), ('soliciting_tithes', 0.2555866241455078), ('Bae_Hyung_Kyu', 0.2520672082901001), ('NIBC_Holding_NV', 0.25038790702819824)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>84</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>[('Jan_Vennegor', 0.28707653284072876), ('agent_Saif_Rubie', 0.2836901545524597), ('Gaetan_Bong', 0.28249573707580566), ('Noe_Paramot', 0.28066301345825195), ('midfielder_Blaise_Matuidi', 0.27511224150657654)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>85</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>[('Wotan', 0.2558214068412781), ('Legislative_Reference', 0.23363947868347168), ('Marschallin', 0.23150946199893951), ('couplet', 0.23004691302776337), ('midcentury', 0.2290046066045761)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>86</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>[('blastocyst', 0.24951206147670746), ('Adalius_Thomas', 0.24042277038097382), ('Sanho', 0.23668459057807922), ('HPL_Technologies', 0.23447798192501068), ('Thisday_Newspaper', 0.2340146005153656)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>87</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>[('tells_StyleList', 0.319305419921875), ('Michaell', 0.30006250739097595), ('Brittny', 0.2968733012676239), ('unduly_prejudicial', 0.2926933467388153), ('attorney_Garo_Ghazarian', 0.29038676619529724)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>88</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>[('Newington_NH', 0.27355989813804626), ('catechumen', 0.26918038725852966), ('Jeanne_Jugan_Residence', 0.2668207585811615), ('selectperson', 0.2660728394985199), ('Visioning_Task_Force', 0.2617064118385315)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>89</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>[('inclusively', 0.27014419436454773), ('Punte_del_Este', 0.2460203915834427), ('##.##hrs', 0.23892733454704285), ('ORD', 0.23625008761882782), ("E'ly", 0.23011375963687897)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>90</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>[('Marketforce', 0.23459742963314056), ('Elsie_Leung', 0.22825755178928375), ('Chief_Executive_Liew_Mun', 0.2259606420993805), ('con_tinues', 0.22576844692230225), ('ongong', 0.22341419756412506)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>91</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>[('wild', 0.24917879700660706), ('STRAY_CAST', 0.24880050122737885), ('hunderd', 0.24535855650901794), ('Fluff_Cowan', 0.24522501230239868), ('Susan_Depetris', 0.24466851353645325)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>92</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>[('KAMLOOPS_BRITISH_COLUMBIA_Marketwire', 0.23399856686592102), ('Sangh_Samachar', 0.23106104135513306), ('JEFFERSON_COUNTY_WV', 0.22950847446918488), ('Narcotics_Anonymous_meets', 0.22702547907829285), ('PONCE_INLET_Fla.', 0.22553279995918274)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>93</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>[('Naish_Naish', 0.276348352432251), ('PZN', 0.2744835913181305), ('nondestructive_testing', 0.2691853642463684), ('transurethral_resection', 0.2657945156097412), ('SWOT_Framework_Analysis', 0.2616029381752014)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>94</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>[('Integration_UDDI', 0.2572191655635834), ('TV_Y7_FV', 0.2536521852016449), ('Inconsistencies', 0.24515517055988312), ('interrogation_tactics', 0.24464596807956696), ('words_loyal_Bushies', 0.23860706388950348)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>95</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>[('By_ANGELA_WEAVER', 0.26202961802482605), ('Chronicle.com', 0.2396385371685028), ('Branch_UTMB', 0.23907950520515442), ('redneck_stereotype', 0.23377326130867004), ('Bubble', 0.23295430839061737)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>96</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>[('Léger', 0.28149086236953735), ('Bonnenfant', 0.28106367588043213), ('By_FELICIA_TACKETT', 0.27882078289985657), ('Samir_Parikh', 0.277091920375824), ('Allyn_Atadero', 0.2641860544681549)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>97</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>[('Abdi_Hassan', 0.2525942325592041), ('Greg_Iannarelli', 0.24356527626514435), ('Lightsy', 0.2376711517572403), ('Ebby', 0.23666919767856598), ('Noam_Kedem_vice', 0.2346273958683014)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>98</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>[('AGILE', 0.2842974066734314), ('Himalayan_Glaciers', 0.2834095358848572), ('M3Power_razor', 0.2655755579471588), ('Brecon_Carreg', 0.2566870152950287), ('Meltwater', 0.2560472786426544)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>99</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>[('www.answers.com', 0.23735736310482025), ('eMercedesBenz', 0.21443216502666473), ('Toyota.com', 0.21219094097614288), ('Aquafina_bottles', 0.21152259409427643), ('Janey_Miley', 0.2111290693283081)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>100</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>[('HDRS', 0.2724975347518921), ('PharMEDium_Services', 0.25577399134635925), ('cubic_feet_MMcf', 0.2541956305503845), ('RehabCare_Group', 0.25151506066322327), ('hypofractionated_radiation', 0.24923332035541534)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>101</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>[("THAILAND_'S", 0.26086387038230896), ("EUROPE_'S", 0.25796473026275635), ('AFTER_YEARS', 0.2500433325767517), ('Fijis', 0.24542973935604095), ('FOLLOWERS', 0.23916830122470856)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>102</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>[('WHENEVER', 0.23819689452648163), ('WHETHER', 0.23184162378311157), ('Crocodile_Dundee', 0.23001331090927124), ('SO_MANY', 0.22912436723709106), ('Forelli', 0.22807271778583527)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>103</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>[('Dawdy', 0.2604234516620636), ('Rutlin', 0.25712648034095764), ('Husum', 0.24941830337047577), ('Fuerth', 0.24855786561965942), ('analyst_Sami_Sarkamies', 0.24779857695102692)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>104</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>[('Jackie_Skaggs', 0.26126131415367126), ('bullet_fragments_lodged', 0.2576426863670349), ('bb_gun', 0.25718554854393005), ('KELK', 0.2531903386116028), ('spokesman_Darrel_Petry', 0.2517208158969879)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>105</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>[('Ko_Myo', 0.2581963539123535), ('Minister_Lawrence_Bropleh', 0.2491951286792755), ('Masato_Nakamura', 0.2480570524930954), ('SMUG', 0.24359437823295593), ('Expense_Expense', 0.24300147593021393)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>106</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>[('jacket', 0.28058958053588867), ('smocks', 0.2747771143913269), ('casual_attire', 0.2716565430164337), ('tan_trench_coat', 0.26977643370628357), ('faded_blue_jeans', 0.26441890001296997)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>107</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>[('CIALIS_PROFESSIONAL', 0.27984702587127686), ('copyright_infringers', 0.2749176025390625), ('CIALIS', 0.27008405327796936), ('Ibila', 0.2668367922306061), ('VIAGRA_FOR_SALE', 0.2647707760334015)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>108</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>[('entreprenuers', 0.27627983689308167), ('police_Col._Weerasilp', 0.27154719829559326), ('aspiring_entrepreneurs', 0.260078102350235), ('showbiz_personalities', 0.25666651129722595), ('medium_sized_enterprises', 0.25534817576408386)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>109</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>[('Evit', 0.25230881571769714), ('Wavesat', 0.250293493270874), ('Grandis', 0.24630630016326904), ('CTSI_Logistics', 0.24330416321754456), ('Lini', 0.24207401275634766)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>110</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>[('Rays_Jeff_Niemann', 0.2593289911746979), ('TV_CSNCA', 0.25666168332099915), ('Liam_Hendriks', 0.25660425424575806), ('LH_Francisco_Liriano', 0.24882178008556366), ('BY_RAJES_PAUL', 0.24764250218868256)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>111</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>[('Famer_Archie_Manning', 0.26436132192611694), ('timeless_classics', 0.24500593543052673), ('Alltech_FEI', 0.23975186049938202), ('Little_Niggers', 0.23802971839904785), ('Centuries', 0.2365170568227768)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>112</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>[('Riazor', 0.2702518105506897), ('Rapa_Nui', 0.2671618163585663), ('Olivier_Martinez', 0.26657557487487793), ('uneasiest', 0.266460120677948), ('El_Sardinero', 0.2662432789802551)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>113</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>[('Dr._Janice_Crouse', 0.2799764573574066), ('Bronwyn_Bishop', 0.2786642611026764), ('Ivo_Daalder', 0.2699899971485138), ('Minister_Eric_Abetz', 0.2664874494075775), ('Frogwatch', 0.25785061717033386)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>114</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>[('Testudo_Times', 0.2752464711666107), ("can't_miss", 0.2750389575958252), ('coach_Al_Groh', 0.26374998688697815), ('fatal_flaw', 0.25829362869262695), ('Bobby_Ackles', 0.25453177094459534)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>115</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>[('catcher_Matt_Treanor', 0.277713805437088), ('TSPs', 0.2738822102546692), ('Goossen', 0.26613616943359375), ('Safecom', 0.2550389766693115), ('Schuldiner', 0.24716717004776)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>116</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>[('pleasantries', 0.2693336606025696), ('draft_picks', 0.25317615270614624), ('chairman_Harley_Hotchkiss', 0.2318689078092575), ('windstorm', 0.23088736832141876), ('Vermont_Yankee', 0.2283134013414383)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>117</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>[('spokesman_Kalev_Vapper', 0.2537039816379547), ('facemask_penalty', 0.2418944239616394), ('BUSHEHR_Iran_Trucks', 0.23811592161655426), ('Thales_SA', 0.23442773520946503), ('distributor_Rexel', 0.23151391744613647)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>118</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>[('Avalere_Health_consulting', 0.30620816349983215), ('LabWare', 0.30262449383735657), ('Corp_UIS', 0.2992982864379883), ('Norm_Ornstein_political', 0.29904457926750183), ('Xoma_Ltd', 0.29598164558410645)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>119</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>[('expressing_sympathy', 0.256475567817688), ('Audry_Lewis', 0.2560270130634308), ('PSNI_Constable', 0.2534620761871338), ('BishopAccountability.org', 0.24998396635055542), ('Faisal_Shahzad_plotted', 0.249966099858284)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>120</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>[('_____________________________________________________________________', 0.27808940410614014), ('----------------------------------------------------------_facility', 0.2520354092121124), ('reser', 0.2367941290140152), ('Facility_APF', 0.23368294537067413), ('Renminbi_Yuan', 0.23326793313026428)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>121</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>[('hartals', 0.2781660854816437), ('Mirani', 0.2760660648345947), ('Rama_Shankar', 0.26590201258659363), ('Sheik_Dari', 0.2589469850063324), ('female_foeticides', 0.25691136717796326)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>122</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>[('stoneware', 0.22267478704452515), ('saucers', 0.21729649603366852), ('Fallingwater', 0.21582549810409546), ('decreeing_code', 0.21531915664672852), ('Terra_Incognito', 0.21494300663471222)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>123</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>[('Lawrick', 0.2628870904445648), ('Yonaguni', 0.25132861733436584), ('Hikaru_Kuroda_facilities', 0.24841777980327606), ('Lee_Bum_ho', 0.24397866427898407), ('Ryo_Motegi', 0.24322260916233063)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>124</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>[('French_Alps', 0.2893056869506836), ('Del_Coronado', 0.2871047854423523), ('Okanogan', 0.2780437469482422), ('fini', 0.2779081165790558), ('Paris_Champs_Elysees', 0.27734312415122986)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>125</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>[('Ptd_Ltd', 0.24043606221675873), ('Jagdish_Yadav', 0.23461705446243286), ('Bisankoni', 0.2337207794189453), ('Movement_NVM', 0.23350949585437775), ('PHM', 0.2328968495130539)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>126</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>[('bogus_promissory_notes', 0.2143935114145279), ('Prattville_Ala._Ochoa', 0.21151363849639893), ('deceitful_charlatan', 0.20887799561023712), ('crystal_vase', 0.2088630348443985), ('Super_Bowl', 0.20726563036441803)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>127</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>[('Multigrain_Cheerios', 0.29040056467056274), ('Maranti', 0.2781841456890106), ('VERO', 0.27658557891845703), ('Frame_Relay_Alliance', 0.2752906084060669), ('Sparc', 0.27521446347236633)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>128</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>[('receptionists', 0.29184776544570923), ('germicide', 0.25969550013542175), ('marbled_floors', 0.25928395986557007), ('QuickTrip', 0.25068241357803345), ('Brillo_pad', 0.2484053671360016)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>129</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>[('Dinoto', 0.28583166003227234), ('Hirniak', 0.27932578325271606), ('Santavicca', 0.2760445475578308), ('Jake_DeLillo', 0.27217021584510803), ('Lucy_Garrec', 0.26813849806785583)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>130</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>[('DDX', 0.23477919399738312), ('ALD', 0.23263207077980042), ('Hizb_ul_Islam', 0.2326168715953827), ('Protection_Visas', 0.22947043180465698), ('minister_Ismail_Isakov', 0.22836114466190338)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>131</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>[('submarine_optic', 0.2651999890804291), ('Dubai_Drydocks_World', 0.2651847302913666), ('Reliance_Globalcom', 0.2593021094799042), ('FORK_Production', 0.2575567364692688), ('Polycom_V###', 0.2564387917518616)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>132</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>[('Art_Scramble_JAS', 0.24384614825248718), ('Abdel_Karim_Obeid', 0.23436126112937927), ('SPDR_ETF_XLE', 0.23040316998958588), ('Gandalf_Murphy', 0.2287474125623703), ('Trick_Pony', 0.22843419015407562)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>133</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>[('grrrls', 0.26082250475883484), ('Aaron_Simon_McBurney', 0.2541281580924988), ('Sheffi', 0.25278720259666443), ('Elyse_Porterfield', 0.24978452920913696), ('Bonnie_Glaser', 0.24962656199932098)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>134</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>[('Consider', 0.23840396106243134), ('Orel_Hershiser', 0.2359974980354309), ('Artur_Boruc', 0.23244257271289825), ('ZENIT', 0.2298400104045868), ('Al_Unser_Jr.', 0.22947441041469574)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>135</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>[('Growth_Rate', 0.2750113904476166), ('pie_tins', 0.262266606092453), ('uncorked_champagne', 0.26136574149131775), ('baking_tins', 0.2599916160106659), ('Crayola_colored', 0.25994744896888733)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>136</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>[('Teichholz', 0.24359317123889923), ('BodyMedia_ID', 0.23438122868537903), ('IEAS', 0.2320854365825653), ('cyanobacteria_blooms', 0.2304248809814453), ('biological_plausibility', 0.2273167222738266)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>137</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>[('Intercontinental_Hotels', 0.2560643255710602), ('linebacker_Audie', 0.2477584183216095), ('tweaked_hamstring', 0.2409299910068512), ('jockeys_Kieren_Fallon', 0.23986458778381348), ('Kirk_Henckels', 0.2373151034116745)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>138</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>[('Benedicto_XVI', 0.2519358694553375), ('Tullian_Tchividjian', 0.25183582305908203), ('yond', 0.25010958313941956), ('â_€_œto', 0.2446237951517105), ('walk_uprightly', 0.2388303130865097)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>139</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>[('eastern_goldfields', 0.3115490972995758), ('Deformation_Zone', 0.30895039439201355), ('Karoo_sediments', 0.3082670271396637), ('previously_undrilled', 0.3002035617828369), ('Mount_Ity', 0.2992638051509857)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>140</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>[('Sidney_Crosby', 0.25831952691078186), ('bitchslap', 0.2578633427619934), ('Dark_Knight_Christian_Bale', 0.24812531471252441), ('goaltender_Marc_Andre', 0.24560533463954926), ('harmon', 0.2452794760465622)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>141</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>[('Famer_Wade_Boggs', 0.26760026812553406), ('OTTAWA_ONTARIO_eMediaWorld', 0.26577433943748474), ('2nd_Degree', 0.2567383944988251), ('Fukoka_Softbank_Hawks', 0.2565607726573944), ('BRAMPTON_ONTARIO_Marketwire', 0.25144368410110474)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>142</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>[('Jebb_Sinclair', 0.27877432107925415), ('ANNVILLE_Pa.', 0.2607863247394562), ('Muttaburra', 0.25850510597229004), ('Wowan', 0.25219056010246277), ('Smokefree_Ballpark', 0.2470903992652893)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>143</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>[('Roh_Tae_woo', 0.2641585171222687), ('Freddy_Nock', 0.2592353820800781), ('wavefronts', 0.2592030167579651), ('geometric_progression', 0.23726865649223328), ('expenditure_OPEX', 0.23594030737876892)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>144</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>[('grandees', 0.2764125168323517), ('licensors', 0.26564711332321167), ('iPhones_BlackBerrys', 0.25191935896873474), ('Marilyn_Monroes', 0.251068115234375), ('glitterati', 0.24649162590503693)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>145</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>[('twirling', 0.27589190006256104), ('Emore', 0.2711063623428345), ('McKinney_Marshals', 0.26854485273361206), ('ACCAC', 0.26632294058799744), ('Sollar', 0.26256653666496277)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>146</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>[('MIPCOM_Junior', 0.30194994807243347), ('PodShow_Podcast_Network', 0.2869487702846527), ('WaTunes', 0.28488463163375854), ('Warren_Buckleitner', 0.2848643362522125), ('IHS_Screen_Digest', 0.2843262553215027)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>147</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>[('Housemaid', 0.3141363263130188), ('starring_Philip_Seymour', 0.28452983498573303), ('Mostly_Martha', 0.2804679870605469), ('starring_Annette_Bening', 0.27114102244377136), ('Borrower', 0.27098172903060913)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>148</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>[('Powershares_DWA_Technical', 0.23966145515441895), ('IBD_TIPP_Presidential', 0.2362838089466095), ('Elected', 0.2320156991481781), ('Empty_Holster_Protest', 0.2209848314523697), ('disolve', 0.21904586255550385)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>149</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>[('Weider', 0.2498217672109604), ('BWC', 0.2451886385679245), ('Industrial_Relation', 0.23898041248321533), ('Boniface_Tamani', 0.2335284948348999), ('Coyte', 0.23196150362491608)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>150</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>[('coerced_confessions_eventually', 0.303802490234375), ('Samleang_Seila', 0.30261361598968506), ('Extraordinary_renditions', 0.3003374934196472), ('sherwoodross##@gmail.com', 0.2998153269290924), ('daughter_Reigh_Storrow_Boss', 0.2987609803676605)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>151</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>[('Jelani_Holland', 0.280966192483902), ('Rossis', 0.23756253719329834), ('Centcom_headquarters', 0.2352595031261444), ('Parachute_Regiment_1st_Battalion', 0.22911985218524933), ('Charles_Furlow', 0.22887922823429108)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>152</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>[('Pointe_Assisted_Living', 0.24995540082454681), ('Tarragindi', 0.2426808923482895), ('Womb_marched', 0.23782703280448914), ('Austere', 0.23201213777065277), ('Subliminal_Verses_Tour', 0.23153893649578094)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>153</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>[('Berkeley_Rep_artistic', 0.28374457359313965), ('catalog_raisonné', 0.27736666798591614), ('visioning', 0.27258801460266113), ('mosaic_mural', 0.2718895375728607), ('Olivier_Messiaen', 0.26808762550354004)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>154</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>[('Mahmoud_Othman_Kurd', 0.30147117376327515), ('Developing_Countries_Clinical_Trials', 0.28957515954971313), ('Party_PKB', 0.2885669469833374), ('Gas_Exporting_Countries', 0.27573519945144653), ('Partnership_EDCTP', 0.273508220911026)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>155</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>[('modest_beginnings', 0.23374061286449432), ('Bombardieri', 0.23182076215744019), ('No_Trespassing_signs', 0.22914902865886688), ('Jasko', 0.22297142446041107), ('Albis', 0.2221912294626236)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>156</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>[('Gwinn', 0.2697959244251251), ('Balen', 0.2661982774734497), ('Hoth', 0.26485899090766907), ('Oscoda_Wurtsmith_Airport', 0.26149773597717285), ('Nejedlo', 0.25836309790611267)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>157</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>[('Mantua', 0.2728249728679657), ('pere', 0.26810669898986816), ('Gelsomina', 0.2667779326438904), ('Swedesboro', 0.2545250952243805), ('Côte', 0.2537115514278412)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>158</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>[('Syed_Sallahuddin', 0.26007115840911865), ('Bhagwan_Swaminarayan', 0.25036031007766724), ('Mong_hun', 0.24541933834552765), ('Hasan_Mahsum', 0.24241818487644196), ('Ki_tae', 0.23919245600700378)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>159</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>[('Trader_Tommy_Kalikas', 0.25567081570625305), ('Verified_Identity_Pass', 0.24703481793403625), ('Libyan_strongman_Moammar_Gadhafi', 0.24658198654651642), ('Managing_Director_Klaas_Brumann', 0.23491041362285614), ('Baldanza', 0.23333750665187836)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>160</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>[('Neuro_Psychiatry', 0.25399860739707947), ('Silver_Streak', 0.23429358005523682), ('Guts', 0.23024936020374298), ('Popular_Revolutionary', 0.2270165979862213), ('quenched', 0.22394324839115143)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>161</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>[('RDSA', 0.2773728370666504), ('HOIL', 0.2679188549518585), ('AZX', 0.2653077244758606), ('Mali_Randgold', 0.265245646238327), ('LGO', 0.2644101083278656)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>162</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>[('OLYMPIC_silver_medalist', 0.30696436762809753), ('weightlifting_gold_medalist', 0.298592209815979), ('Chamblis', 0.2961142361164093), ('7lbs_##oz', 0.2959129214286804), ('Defenders_GLAD', 0.28906840085983276)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>163</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>[('Froderman', 0.2920331358909607), ('Kurdt', 0.2800725996494293), ('singer_Johnny_Rzeznik', 0.27750837802886963), ('imitators_fraudsters', 0.2767013609409332), ('De_Armond', 0.27255716919898987)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>164</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>[('Bolotov', 0.24927355349063873), ('Routa', 0.24816828966140747), ('TIFTON_Ga.', 0.24746760725975037), ('Pashutin', 0.24510033428668976), ('WINNSBORO_SC', 0.2424110472202301)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>165</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>[('Athens_Costas_Kantouris', 0.25446534156799316), ('Onaran', 0.24622218310832977), ('Case_Shiller_Indexes', 0.242734894156456), ('liquids_NGLs', 0.23983870446681976), ('Turkish_Christians_Necati', 0.23232263326644897)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>166</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>[('office_Fathi_Darwish', 0.2529062032699585), ('Damrell', 0.2515338957309723), ('grubber', 0.24920856952667236), ('Yoko_Tanaka', 0.24758334457874298), ('Celebrity_Deathmatch', 0.2453562170267105)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>167</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>[('Geghamyan', 0.2639305591583252), ('Commission_RDEC', 0.2596490681171417), ('Affluent_Investor', 0.2533930838108063), ('Hay_Dat', 0.25182098150253296), ('IIRC', 0.24456743896007538)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>168</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>[('Chief_Joseph_Zikuski', 0.2985098361968994), ("O'Koniewski", 0.2920733690261841), ('McGrody', 0.2894313633441925), ('Prandini', 0.2847139537334442), ('Kurgan_Corps', 0.2824486494064331)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>169</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>[('tinny_trumpets', 0.26814979314804077), ('Rossmiller', 0.26764458417892456), ('Curt_Weldon', 0.2650075852870941), ('USCongress', 0.264524906873703), ('Commit_tee', 0.26354628801345825)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>170</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>[('intrepid_reporter', 0.26196980476379395), ('Congressman_Rohrabacher', 0.2540194094181061), ('IWS_Law_Enforcement', 0.24966901540756226), ('PNNL_scientist', 0.24824053049087524), ('sincere_appreciation', 0.24748064577579498)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>171</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>[('Zora_Neale_Hurston', 0.2672046422958374), ('sweetgrass_baskets', 0.26292896270751953), ('Rima_Kalonda', 0.2592282295227051), ('appropriations_subcommittee', 0.256454735994339), ('densest_concentrations', 0.24521856009960175)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>172</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>[('Cinetic', 0.26385465264320374), ('Jason_Janego', 0.2598894238471985), ('National_Lampoon_Bagboy', 0.25945377349853516), ('Matador', 0.2581758499145508), ('Brie_Larson', 0.2578735053539276)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>173</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>[('lithium_atoms', 0.2398080974817276), ('Carnegie_Institution', 0.2287415862083435), ('sandfish', 0.22082798182964325), ('lidded_bins', 0.22025863826274872), ('bins_emptied', 0.2201789766550064)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>174</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>[('CUSEC', 0.30086851119995117), ('Tainsky', 0.26893937587738037), ('Marcia_Langton', 0.2604900598526001), ('Hass_Dellal', 0.25559842586517334), ('Kevin_Schappell', 0.252411425113678)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>175</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>[('Arun_Rao', 0.25937652587890625), ('Happy', 0.23879878222942352), ('----------------------------------------------------------_Technologies', 0.23135899007320404), ('Vive', 0.22989599406719208), ('Cotton_Wool_Buds', 0.22445876896381378)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>176</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>[('Umaima', 0.2792055606842041), ('Katherine_Dana_Delany', 0.2677002251148224), ('www.ic_resources.co.uk', 0.26629969477653503), ('Klum_stylist', 0.26395243406295776), ('Roslan', 0.2636256515979767)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>177</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>[('PASS_Ore.', 0.2711082100868225), ('HERRIN_Ill.', 0.23804247379302979), ('BRANDON_Vt.', 0.235983744263649), ('MILWAUKIE', 0.23366861045360565), ('VIROQUA', 0.23103384673595428)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>178</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>[('####.So', 0.2685945928096771), ('zodiacal', 0.2345638871192932), ('dafx', 0.23063349723815918), ('Igbo_Ukwu', 0.2288903295993805), ('signified', 0.2276913970708847)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>179</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>[('pave', 0.23940587043762207), ('Soquel', 0.2379784733057022), ('El_Granada', 0.23249761760234833), ('avocado_grower', 0.22986949980258942), ('seashore_mallow', 0.22668620944023132)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>180</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>[('Lazarus_Kandara', 0.24667182564735413), ('Akill', 0.2432461977005005), ('wh_ile', 0.22792287170886993), ('Dragan_Losic', 0.2271452248096466), ('wog', 0.22696971893310547)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>181</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>[('Promod_Mahajan', 0.23800992965698242), ('Aftab_Siddiqui', 0.23506340384483337), ('Alice_Ripley', 0.23486702144145966), ('Beuke', 0.2319321632385254), ('BRISTOL_CONN', 0.22818827629089355)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>182</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>[('Luehring', 0.3072237968444824), ('Terrell_Stovall', 0.30717912316322327), ('Ollari', 0.296599417924881), ('Jerious', 0.2887931168079376), ('Carpine', 0.28749606013298035)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>183</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>[('SUF', 0.24032722413539886), ('alotted', 0.22386886179447174), ('Suisham_ironically', 0.22171702980995178), ('non_sensical', 0.22117245197296143), ('Fifteenth', 0.2159423679113388)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>184</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>[('spokesman_Ray_Pellecchia', 0.2685577869415283), ('Aktietorget', 0.24290522933006287), ('spokesman_Christiaan_Brakman', 0.23964929580688477), ('veils_imprison_women', 0.23891745507717133), ('Wissen', 0.2346644550561905)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>185</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>[('hypoxic_ischemic', 0.272285133600235), ('willfull', 0.23402272164821625), ('maximally_taxed', 0.22785085439682007), ('Expressing_displeasure', 0.22053653001785278), ('posterior_capsular', 0.2172863483428955)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>186</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>[('frigate_USS', 0.2822542190551758), ('Martime', 0.2759699821472168), ('St._Inigoes', 0.2750760316848755), ('Oliver_Hazard_Perry', 0.27266618609428406), ('submarine_chaser', 0.2696346044540405)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>187</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>[('Truell', 0.2714157700538635), ('Pontiac_G5', 0.26579707860946655), ('Westhoffs_dropped', 0.2641215920448303), ('unleveraged', 0.2597993314266205), ('Hamric', 0.2576604187488556)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>188</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>[('DallasCowboys.com', 0.2704772651195526), ('Nauset_Regional_High', 0.25507238507270813), ('Harpswell', 0.2524920701980591), ('Masconomet_Regional_High', 0.25160878896713257), ('Marshwood_High', 0.2510690689086914)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>189</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>[('feeder_cattle', 0.277578204870224), ('airtight_containers', 0.2722708284854889), ('Civilian_casualties', 0.2702428698539734), ('gravely_harmed', 0.2612033188343048), ('Kandagal', 0.2604897916316986)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>190</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>[('analyst_Samir_Husni', 0.24043956398963928), ("wait'll", 0.2381509691476822), ('basketall', 0.23704130947589874), ('upper_echelon', 0.23303747177124023), ('grinds', 0.23276081681251526)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>191</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>[('Roueida_Mabardi', 0.28918778896331787), ('Zolnour', 0.27147573232650757), ('Fred_Holabird', 0.27092424035072327), ('George_Glasier', 0.26877284049987793), ('Yahya_Ayyash', 0.26736319065093994)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>192</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>[('stretching', 0.23104330897331238), ('El_Magnifico', 0.23003582656383514), ('Far_Away', 0.22395886480808258), ('Erlingsdottir', 0.22341030836105347), ('Shalev', 0.22279708087444305)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>193</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>[('registrar', 0.250459223985672), ('commissioner', 0.2419082671403885), ('Mayor_Giorgio_Orsoni', 0.23903219401836395), ('Aminu_Bello', 0.2312459796667099), ('Elisabeta', 0.2312176674604416)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>194</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>[('owner_Ilan_Parente', 0.2596878111362457), ('him.We', 0.25324776768684387), ('ooks', 0.2507866621017456), ("ko'd", 0.24267129600048065), ('gup', 0.24099016189575195)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>195</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>[('rugged_canyons', 0.2843818962574005), ('tugboats_hauled', 0.2805681824684143), ('potato_chip', 0.2776219844818115), ('waking', 0.27528032660484314), ('awoken', 0.26801982522010803)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>196</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>[('Active_Bacterial', 0.2790282070636749), ('CCGA', 0.25071725249290466), ('Prins_Willem', 0.25005489587783813), ('Daily_Yomiuri', 0.2491786777973175), ('GYTS', 0.24316662549972534)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>197</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>[('Nawab_Sahib', 0.2408970296382904), ('enmass', 0.23733022809028625), ('Lok_sabha_polls', 0.23701782524585724), ('attitude', 0.23563235998153687), ('Hornbill_festival', 0.23239867389202118)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>198</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>[('Global_Telesystems', 0.26075711846351624), ('TDLP', 0.2509870231151581), ('#L#_Phone', 0.24964453279972076), ('defunding', 0.2495744377374649), ('Senator_Sheila_Kuehl', 0.2453635036945343)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>199</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>[('sardonic', 0.24217818677425385), ('plangent', 0.24167636036872864), ('dyspeptic', 0.23832252621650696), ('plaintive', 0.23720285296440125), ('self_lacerating', 0.22835375368595123)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>200</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>[('nocturnal_mammals', 0.2878091037273407), ('Mosquitos', 0.27288952469825745), ('El_Pital', 0.2679693400859833), ('sirtuin_inhibitors', 0.26352405548095703), ('Legionella_bacterium', 0.2613371014595032)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>201</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>[('Adhesion', 0.2514893114566803), ('Systems_Integrators_SI', 0.2458963394165039), ('Vachon', 0.24372462928295135), ('Interoperability_Lab', 0.24239742755889893), ('Bernie_Sanders', 0.23829571902751923)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>202</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>[('Voicenet', 0.2562602758407593), ('PureEdge_Solutions', 0.2542540431022644), ('Mount_Senario', 0.24863071739673615), ('Renewable_Funding', 0.24801389873027802), ('Assiniboine_Credit', 0.2448895424604416)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>203</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>[('SmartSponge', 0.25564542412757874), ('deicing_pads', 0.2416856586933136), ('Jhabvala', 0.23474545776844025), ('Bobbs_Merrill', 0.2332352250814438), ('Midsomer_Murders_Set', 0.23182310163974762)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>204</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>[('referee_Darren_Deadman', 0.28248268365859985), ('darted_upfield', 0.2636615037918091), ('Neal_Gawley', 0.26149165630340576), ('minute', 0.25971928238868713), ('Josef_Antonelli', 0.2595826983451843)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>205</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>[('Lydd_airport', 0.23922380805015564), ('Boreal_forest', 0.23825225234031677), ('Pillage', 0.23722782731056213), ('chages', 0.23477782309055328), ('Banana_Bunch', 0.23183317482471466)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>206</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>[('Kendall_Harmon', 0.2971009910106659), ('Catherine_Heigel', 0.29219532012939453), ('Ecotech', 0.2723768353462219), ('Dominic_Gammiero', 0.2709307372570038), ('Upplands', 0.26985302567481995)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>207</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>[('Jean_Marie_Kacou', 0.2883022129535675), ('Jumana', 0.2622101306915283), ('Laurence', 0.2593036890029907), ('Jill_Rappaport', 0.25850021839141846), ('Loews_Regency_Hotel', 0.2576977610588074)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>208</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>[('Sperrin_Lakeland_Trust', 0.2767699360847473), ('Rajiv_Gandhi_Container_Terminal', 0.25626060366630554), ('Julianstown', 0.2551696300506592), ('rehabilitaion', 0.24314837157726288), ('Needs_Assessment', 0.23997916281223297)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>209</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>[('LiveNation', 0.2488202005624771), ('spokesman_Shinichi_Akiyama', 0.2364027202129364), ('Moondance_Jam', 0.2332606315612793), ('Acoustic_Sounds', 0.23240061104297638), ('unlockable_goodies', 0.2304253876209259)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>210</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>[('Rod_Masson', 0.2455972582101822), ('NUIT', 0.2327014058828354), ('mulitiple', 0.23206230998039246), ('volved', 0.22830522060394287), ('Coach_Bob_Stoops', 0.22745469212532043)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>211</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>[('â_€_œYouâ_€', 0.2526547908782959), ('Tim_Burtons', 0.24996089935302734), ('Bottom_line', 0.23673121631145477), ("i'ts", 0.23192985355854034), ('youÃ_¢_â_¬', 0.2273397445678711)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>212</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>[('DANIELLE_PARRY', 0.2784710228443146), ('Greg_Barns', 0.26544082164764404), ('MELINDA_JAMES', 0.2645980417728424), ('Morobe_Governor', 0.2605931758880615), ('became_cause_célèbre', 0.2590457797050476)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>213</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>[('Weston_Bakeries', 0.29924649000167847), ('Co._BMY.N', 0.2963632047176361), ('Co._NYSE_HSY', 0.2949546277523041), ('CVS_Walgreen', 0.2916647493839264), ('Selects_GT_Nexus', 0.2791471779346466)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>214</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>[('placemats', 0.2850955128669739), ('upholstery', 0.25500261783599854), ('pocket_Polone', 0.2523193359375), ('carpet', 0.2480786293745041), ('textile_dyes', 0.24094194173812866)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>215</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>[('============================================_Per', 0.2815319299697876), ('SOLD', 0.2777666449546814), ('OBDP', 0.2571566104888916), ('redroof.com', 0.2546091675758362), ('CEU', 0.2520909905433655)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>216</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>[('translate', 0.2370772361755371), ('Untied', 0.23699809610843658), ('extra_precautions_Porwoll', 0.23474501073360443), ('FOND_DU_LAC_Wis.', 0.23441444337368011), ('Holiday_Fantasea', 0.2328934371471405)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>217</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>[('TSDB', 0.2824684977531433), ('DIA', 0.28078901767730713), ('luggage_racks', 0.2686949670314789), ('perquisites', 0.26693540811538696), ('Heart_Failure_Questionnaire', 0.2613659203052521)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>218</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>[('Wine_Grape', 0.2542739510536194), ('GreenSpace_Alliance', 0.24684113264083862), ('P._Richert_About.com', 0.24352890253067017), ('Pays_de_la', 0.2417878657579422), ('Marine_Biologist', 0.2409355342388153)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>219</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>[('##cm_##in', 0.24069589376449585), ('embonpoint', 0.226518914103508), ('foresight', 0.2184065282344818), ('4mm', 0.21398937702178955), ('multiplying', 0.2120031714439392)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>220</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>[('describing', 0.2358841896057129), ('Westmar', 0.22945892810821533), ('hotels', 0.21829338371753693), ('Clare_Nessling', 0.2149742692708969), ('Nationwide_economist_Fionnuala', 0.21289560198783875)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>221</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>[('Old_filly_trotters', 0.26584213972091675), ('Limited_ACN_ARSN', 0.26124364137649536), ('Fiddlers_Pike', 0.260006844997406), ('Shawklit', 0.25451090931892395), ('Coochie', 0.2528459429740906)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>222</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>[('Ethen', 0.2490265965461731), ('Sen._Adeline_Geo', 0.24584223330020905), ('rubella_vaccination', 0.24518822133541107), ('diphtheria_antitoxin', 0.24469654262065887), ('King_Olav', 0.24124383926391602)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>223</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>[('S7', 0.299467533826828), ('Diarough', 0.2635287344455719), ('Sharad_Ghai', 0.2578054964542389), ('Ankur_Chawla', 0.2532055377960205), ('ENGINE_#.#L', 0.25286367535591125)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>224</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>[('Gamel', 0.2708713114261627), ('unretiring', 0.2471397966146469), ('carouser', 0.24690979719161987), ('Shansby', 0.24550706148147583), ('talke', 0.2443353682756424)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>225</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>[('Louis_Koen', 0.27773743867874146), ('grubber', 0.2598455250263214), ('Tetragon', 0.25457528233528137), ("Ronan_O'Gara", 0.2522086799144745), ('Richie_McCaw', 0.24585406482219696)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>226</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>[('Marital_rape', 0.26550185680389404), ('p_olitical', 0.2649073302745819), ('Law_Dictionary_defines', 0.2536637783050537), ('Andorran', 0.2512032091617584), ('Charlotte_Rampling', 0.2422265112400055)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>227</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>[('sandbag_emplacements', 0.2866773307323456), ('Commissioner_Marc_Sarnoff', 0.2790493667125702), ('Juan_Manuel_Cao', 0.27434346079826355), ('Liao_Liou_yi', 0.2734810709953308), ('Habib_Adli', 0.26898103952407837)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>228</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>[('opposition', 0.287140816450119), ('Mr._Avoka', 0.27408018708229065), ('Hello_Garci_recordings', 0.271504282951355), ('administraton', 0.2675294578075409), ('skipper_Warren_Tredrea', 0.26645055413246155)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>229</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>[('channelization', 0.24747677147388458), ('hydrologically', 0.2381238341331482), ('K_Sanghi', 0.23380905389785767), ('Jack_Critcher_D', 0.23260894417762756), ('Jon_Glaudemans_senior', 0.2300645411014557)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>230</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>[('Hassan_al_Louzi', 0.24554088711738586), ('immediately', 0.23767423629760742), ('Bursten', 0.23553992807865143), ('Johan_Fredriksen_chief', 0.22943143546581268), ('Ghazi_Aridi', 0.22922471165657043)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>231</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>[('D_Endwell', 0.2861463129520416), ('Assemblywoman_Audrey', 0.265474796295166), ('Impending', 0.2653639316558838), ('Antistatic', 0.2642415463924408), ('Cruise_Vessel', 0.2623996138572693)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>232</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>[('CoT', 0.24229620397090912), ('trouble_fathoming', 0.22807639837265015), ('Wonderlic_exam', 0.21975666284561157), ('Jouf_province', 0.2157396376132965), ('stealthier', 0.2141101062297821)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>233</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>[('slitting_throats', 0.2597525119781494), ('Tultitlan', 0.2583317458629608), ('civilian_Nicholas_Berg', 0.2518950402736664), ('Tournus', 0.24894335865974426), ('throwing_Molotov_cocktails', 0.2484913319349289)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>234</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>[('worldy', 0.27688106894493103), ('Harajuku', 0.2685263752937317), ('incognito', 0.26554766297340393), ('atomic_bomb_Harry_Truman', 0.2577286660671234), ('favorite_hangouts', 0.2570275664329529)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>235</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>[('Mammoth_Mountain', 0.2645350992679596), ('Santa_Monica_Mountains', 0.2644060254096985), ('Alpine_Meadows', 0.25114715099334717), ('Six_Flags_Magic', 0.2485150396823883), ('KABC_TV', 0.23977652192115784)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>236</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>[('McAlester_Watercooler', 0.2735290825366974), ('Thomas_Eakins', 0.25672560930252075), ('Jeff_Van_Donsel', 0.25355300307273865), ('Henry_Nemenz', 0.2530863285064697), ('Wheatleys', 0.25294941663742065)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>237</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>[('Sannae_valley', 0.27000850439071655), ('Blaskic', 0.24055537581443787), ('Iğsız', 0.23473551869392395), ('Krystian_Bala', 0.23402030766010284), ('Schloss', 0.23342575132846832)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>238</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>[('Obligation_Bonds', 0.2704333961009979), ('slickly_produced', 0.26145949959754944), ('Barroid', 0.2597306966781616), ('maple_leaf_flags', 0.25625425577163696), ('center_fielder_Denard', 0.25491559505462646)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>239</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>[('Meredith', 0.2636848986148834), ('Ryce', 0.25059232115745544), ('Elmo_Magalona', 0.250520259141922), ('NYhas_graduated', 0.24404263496398926), ('Darbe', 0.24193331599235535)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>240</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>[('inkings', 0.2634628713130951), ('cellulite', 0.25956276059150696), ('jailhouse', 0.25725460052490234), ('wraped', 0.2509143054485321), ('Cardica', 0.2474394291639328)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>241</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>[('hiting', 0.23612827062606812), ('Cramming', 0.2285526543855667), ('See_GMEET', 0.22681622207164764), ('tosses', 0.2226213663816452), ('Thrown', 0.2213810682296753)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>242</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>[('--------------------------------_Pro_forma', 0.2846728563308716), ('Possible_Loan_Losses', 0.2747304141521454), ('Queens_Gambit', 0.2568511962890625), ('Funded_Debt', 0.25494620203971863), ('Per_User_CCPU', 0.2500075101852417)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>243</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>[("d'_Amore", 0.24574248492717743), ('Isigny', 0.2385415881872177), ('NEWBURY', 0.2381105273962021), ('Reale_Mutua', 0.23756158351898193), ('SUBTITLED_TRANSLATION', 0.2351280152797699)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>244</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>[('Competitor', 0.22927330434322357), ('vocalist_bassist', 0.22525271773338318), ('KeyEye_Communications', 0.2247641533613205), ('Power_Plc_SPW.L', 0.22294266521930695), ('Intergum', 0.22293618321418762)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>245</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>[('Carlos_Tevez_Nani', 0.24931178987026215), ('Johannah', 0.24798880517482758), ('Brittanie', 0.24227170646190643), ('Suddoth', 0.24068108201026917), ('Bar_Levav', 0.2403654307126999)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>246</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>[('Lilik', 0.2538285255432129), ('Keystone_Midstream', 0.23282495141029358), ('Eben_Josh_Hartnett', 0.22600103914737701), ('Lansings_purchased', 0.2259693294763565), ('Ira_Lubert', 0.2249966859817505)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>247</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>[('VPAID', 0.28643298149108887), ('PPCall', 0.27758780121803284), ('Caching', 0.2770127058029175), ('Can_Prevent_Cheating', 0.26847895979881287), ('meebo_rooms', 0.2664228081703186)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>248</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>[('kinetic_energy', 0.23417678475379944), ('bright_purple_betta', 0.23387542366981506), ('snub_nosed_.##', 0.23052164912223816), ('Ross_Goodheart', 0.2291649430990219), ('Yagalla', 0.22879797220230103)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>249</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>[('Bicycle_messenger_Gravett', 0.2356089949607849), ('Xeroxed_copies', 0.22926858067512512), ('sup_porters', 0.22916555404663086), ('headwaters', 0.22687354683876038), ('Legal_Tender', 0.22659333050251007)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>250</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>[('Programme_Producers_AMPTPP', 0.2650003135204315), ('###/mt', 0.26462045311927795), ('Al_Mehwar', 0.259199857711792), ('NCWS', 0.25451698899269104), ('Whereas', 0.2519654631614685)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>251</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>[('Ezulwini', 0.2741174101829529), ('Tentative', 0.2688577473163605), ('Mwanachingwala', 0.26765280961990356), ('Pretoria_Tshwane', 0.26731109619140625), ('Sakhile', 0.2604157030582428)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>252</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>[('Gram', 0.2454718053340912), ('Il_Dago', 0.24249400198459625), ('sangoma', 0.24122236669063568), ('drown_sorrows', 0.24065984785556793), ('gola', 0.2398649901151657)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>253</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>[('Henning_Mankell', 0.28021737933158875), ('Ropponen', 0.2583959102630615), ('Ringo_drums', 0.2572823464870453), ('Valency', 0.2552129626274109), ('Gunningham', 0.2545778155326843)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>254</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>[('News_Ari_Hait', 0.26583874225616455), ('Mabrouk_Mubarak', 0.2619234025478363), ('Franklyn_Calle', 0.26141130924224854), ('Sobeck_Bador', 0.26051077246665955), ('Amsalem_Farrag_whose', 0.2594614028930664)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>255</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>[('skier_Jonny_Moseley', 0.26413777470588684), ('Pusan_Promotion', 0.24652151763439178), ('Sheila_Farrington', 0.2441481500864029), ('Holger_Geschwindner', 0.2433968037366867), ('Appliances', 0.24213722348213196)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>256</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>[('drought_stricken_farmers', 0.26565125584602356), ('Pacific_Ethanol', 0.24694588780403137), ('Pro_Trestles', 0.24496781826019287), ('Quiksilver', 0.2398606687784195), ('NYSE_WTS', 0.23884235322475433)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>257</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>[('Runway', 0.2378990650177002), ('T5', 0.23720528185367584), ('Eric_Doten', 0.22504961490631104), ('hiree', 0.2229367345571518), ('taxiway', 0.2200913280248642)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>258</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>[('urlequalshttp_:/', 0.2604132890701294), ('Marjorie_Koval', 0.23672641813755035), ('sensitives', 0.2343316674232483), ('unjust', 0.2275393158197403), ('Nazarite_Vow', 0.2235969603061676)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>259</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>[('Federally_mandated', 0.23306015133857727), ('orphaned_goddaughter', 0.23072689771652222), ('forgoes', 0.22589553892612457), ('Miyazu', 0.22543683648109436), ('Liu_Juming', 0.2240983247756958)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>260</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>[('André_Ouellet', 0.26070746779441833), ('Swette', 0.25780627131462097), ('Sovran', 0.25675901770591736), ('FlyNordic', 0.25591984391212463), ('recruit_Terrelle_Pryor', 0.25560739636421204)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>261</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>[('monologue_fodder', 0.2627080976963043), ('SilkAir', 0.2621309161186218), ('Human_Rights_Rama_Yade', 0.2557404935359955), ('Jauffret', 0.25530898571014404), ('CRJ####_NextGen', 0.2533547580242157)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>262</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>[('NASDAQ_NTES', 0.26293182373046875), ('Chosun_Ilbo_¡_¯', 0.25588101148605347), ('Minister_Cham_Prasidh', 0.24555981159210205), ('secretary_Rahul_Khullar', 0.2408159077167511), ('Takeo_Province', 0.23974621295928955)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>263</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>[('analyst_Justine_Detzel', 0.2511574923992157), ('mass_exodus', 0.2491866648197174), ('Grootvlei_mine', 0.24241861701011658), ('loyal_followings', 0.2351139932870865), ('exodus', 0.23174995183944702)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>264</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>[('Laredo_McAllen', 0.2598760426044464), ('SRES', 0.2580965459346771), ('Association_GRPA', 0.25271543860435486), ('Ropesville', 0.2516114115715027), ('Senec', 0.2512848973274231)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>265</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>[('largely_circumstantial', 0.31445103883743286), ('mother_Janet_Pelasara', 0.28268149495124817), ('READ_COMPLETE_ARTICLE', 0.2782093584537506), ('overcoat_collar', 0.2734619677066803), ('Eric_Matwiejczyk', 0.268960177898407)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>266</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>[('attend_Weisband', 0.2248634248971939), ('connectiveness', 0.22184598445892334), ('correctly_spelling', 0.220388263463974), ('Rajtar', 0.21930016577243805), ('inverted_triangle_choke', 0.21612516045570374)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>267</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>[('Lill', 0.24947845935821533), ('Onica', 0.24912473559379578), ('Colleta', 0.248390331864357), ('watch_helplessly', 0.2475893795490265), ('Neiffer', 0.2467188686132431)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>268</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>[('retailer_Hennes_&amp;', 0.2537533938884735), ('Chmura', 0.24485552310943604), ('Endra', 0.24028614163398743), ('Hidajat', 0.23917198181152344), ('Pinyo', 0.2366725355386734)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>269</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>[('TVTC', 0.24758532643318176), ('Jetson', 0.23943936824798584), ('Azizia', 0.23415738344192505), ('Gonerby_Hill', 0.23413307964801788), ('Shakara', 0.23137353360652924)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>270</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>[('until', 0.25984665751457214), ('Interpharma', 0.24209079146385193), ('cider_mill', 0.2310253381729126), ('concluded', 0.22628137469291687), ('ACJIC', 0.20951524376869202)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>271</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>[('Altanta_Falcons_tight', 0.30693086981773376), ('anticipation_Apruzzese', 0.2829308807849884), ('head_Donald_Fehr', 0.2784309685230255), ('Commissioner_Roger_Goodell', 0.2686193287372589), ('website_www.advanceamerica.net', 0.2684379816055298)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>272</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>[('Yours_Jason_Mraz', 0.2605295479297638), ('metal_bracelet_charms', 0.24729874730110168), ('Respect_copyrights', 0.24299535155296326), ('Auf_Der_Maur', 0.24265235662460327), ('Nasty_hitmaker', 0.23541216552257538)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>273</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>[('Arist', 0.2857283055782318), ('Fontano', 0.2850653827190399), ('McNeiece', 0.28089311718940735), ('aiders', 0.28032562136650085), ('Leache', 0.2798479199409485)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>274</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>[('hi_ho', 0.28317132592201233), ('Kristi_Harrower', 0.2827947735786438), ('embroidered_fabrics', 0.2827272117137909), ('Warhol_portraits', 0.2820071876049042), ('Abu_Sandeep', 0.27853766083717346)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>275</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>[('Gorda', 0.2661527991294861), ('Matthys_McMillan', 0.24042271077632904), ('Hato_Rey_Puerto_Rico', 0.2352810800075531), ('Playa_Del', 0.23394867777824402), ('XLU', 0.23328325152397156)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>276</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>[('following_link_https://www.nextinning.com/subscribe/index.php?refer=', 0.27803680300712585), ('WELB', 0.2608548402786255), ('Melissa_Copelan', 0.25371432304382324), ('Wagga_Base', 0.24829693138599396), ('Heghine', 0.24738484621047974)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>277</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>[('Skylink_Aviation', 0.26855024695396423), ('Stu_Olds', 0.2514208257198334), ('PRTM', 0.25105634331703186), ('Ami_Neiberger_Miller', 0.24912048876285553), ('Ed_Soladay', 0.24808643758296967)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>278</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>[('NetProspex', 0.26416048407554626), ('Amy_Noblin', 0.2569192051887512), ('FitFlop', 0.23801973462104797), ('Sorich', 0.23756130039691925), ('Investrend', 0.23712053894996643)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>279</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>[('sally', 0.2768348157405853), ('argent', 0.2665286362171173), ('Vitug', 0.2538916766643524), ('cynical', 0.2497018277645111), ('fearful_symmetry', 0.24860505759716034)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>280</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>[('Jing_Wang', 0.24044953286647797), ('scrotal_temperatures', 0.2290078103542328), ('Massah', 0.22430042922496796), ('Antagonistic', 0.21988432109355927), ('Tae_Kyun_Kim', 0.21939624845981598)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>281</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>[('Rygge_opened', 0.25740206241607666), ('Oslo_terminals_Torp', 0.25664833188056946), ('Ephemeris', 0.24699285626411438), ('Mohegan_Sun_Pocono_Downs', 0.2460031360387802), ('Bernard_Bilski', 0.24221207201480865)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>282</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>[('drainfields', 0.2846856415271759), ('OCWA', 0.28252848982810974), ('furbearers', 0.27744776010513306), ('pro_perty', 0.27678853273391724), ('footgear', 0.27151060104370117)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>283</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>[('Hamline_University', 0.2616621255874634), ('Great_Clips', 0.2575594484806061), ('Frauenshuh', 0.25541985034942627), ('Shirley_Vilhauer', 0.2546270191669464), ('Dammeier', 0.25406602025032043)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>284</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>[('scribe', 0.2596011459827423), ('dualing', 0.24548691511154175), ('hazarded', 0.24093884229660034), ('qualifies_unfurls', 0.24090340733528137), ('Kunhar', 0.2381390631198883)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>285</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>[('Libin', 0.2506585121154785), ('HKRFU', 0.24409130215644836), ('Benson_CFE', 0.23520183563232422), ('Luxury_Yachts', 0.2326337993144989), ('Brand_Neue', 0.230900838971138)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>286</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>[('Oxford_Diffraction', 0.2507953345775604), ('Utes', 0.2503361999988556), ('flow_cytometry_instrumentation', 0.24080708622932434), ('unvested_stock', 0.2356203943490982), ('attorney_Gary_Lozow', 0.2352936863899231)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>287</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>[('spokeswoman_Nadine_Olivieri', 0.2985438406467438), ('drank_rainwater', 0.27166852355003357), ('subsisted', 0.2638785243034363), ('Bing_Dian', 0.25930365920066833), ('Palgrave_Macmillan', 0.25635990500450134)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>288</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>[('Superintendent_Terry_Foriska', 0.2753049433231354), ('Pussycat_Doll_Melody', 0.264954149723053), ('rehiring_laid', 0.26405099034309387), ('BPSD', 0.2598954141139984), ('Graceworks_Ministries', 0.25915881991386414)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>289</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>[('Reference_librarians', 0.27118533849716187), ('read_voraciously', 0.26985812187194824), ('culinary_herbs', 0.267952024936676), ('Trishna', 0.2631909251213074), ('childminder', 0.26219692826271057)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>290</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>[('DailyStrength.org', 0.25594034790992737), ('Mish_Michaels', 0.24463772773742676), ('mispronounce', 0.2378421276807785), ('Thys', 0.23682597279548645), ('Amy_Van_Dyken', 0.23216286301612854)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>291</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>[('evil_propensities', 0.2559698522090912), ('Estelle_ilikemusic', 0.25001031160354614), ('Autocentres', 0.24631738662719727), ('immigrate_legally', 0.23815421760082245), ('becasuse', 0.23589476943016052)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>292</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>[('economist_Zuo_Xiaolei', 0.2278168499469757), ('l_ess', 0.2218778282403946), ('Mohamed_Alami', 0.21488110721111298), ('Sam_Amick', 0.21460576355457306), ('multicurrency_accounting', 0.20826224982738495)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>293</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>[('GbmH', 0.2591995298862457), ('HLE', 0.24738961458206177), ('STMicroelectronics_Crolles', 0.2454889416694641), ('CRESP', 0.24009300768375397), ('exterminations', 0.23864752054214478)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>294</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>[('Nikco_Sports', 0.2688565254211426), ('Gator_Bowls', 0.2596723437309265), ('AstroPlay', 0.25026801228523254), ('Stub_Hub', 0.24325573444366455), ('Community_PhoneBook', 0.2414586842060089)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>295</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>[('bondholder', 0.2589828073978424), ('Food_Supplements_Directive', 0.2529888451099396), ('Niscota', 0.24884608387947083), ('orderly_insolvency', 0.24288983643054962), ('Wardouni', 0.24126294255256653)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>296</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>[('alpaca_fleece', 0.2544323205947876), ('trademarking', 0.24957920610904694), ('twentysomething_hipsters', 0.23657552897930145), ('prances', 0.23565718531608582), ('Puerto_Rican_rums', 0.23191748559474945)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>297</v>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>[('oxidized_linalool', 0.2604231536388397), ('Interbank_lending', 0.22202780842781067), ('Bernville_Pa.', 0.21905729174613953), ('Corporate_Equality', 0.21568001806735992), ('ulcerative_colitis', 0.21560297906398773)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>298</v>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>[('Yupik_Eskimo_village', 0.28481584787368774), ('Eineke', 0.2689865827560425), ('Phosphorus_compounds', 0.2685735523700714), ('San_Juans', 0.2680943012237549), ('outfielder_Austin_Kearns', 0.262175977230072)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>google_news</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>model&lt;vocab=?, vector_size=300&gt;</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>299</v>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>[('Vanhoozer', 0.2818939983844757), ('hurling_invective', 0.26223212480545044), ('Silliman', 0.26161789894104004), ('Hayet', 0.26142585277557373), ('Haykal', 0.2592567503452301)]</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D404"/>
+  <dimension ref="A1:D704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,7 +531,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[('cent', 0.33334049582481384), ('per', 0.3224829137325287), ('17', 0.30193576216697693), ('-', 0.29606470465660095), ('23', 0.29006507992744446)]</t>
+          <t>[('cent', 0.33138105273246765), ('per', 0.31214937567710876), ('12', 0.30431851744651794), ('17', 0.3007502853870392), ('1959', 0.3006085455417633)]</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[('Af', 0.3824728727340698), ('temperature', 0.329413503408432), ('low', 0.31763070821762085), ('8', 0.2906905710697174), ('Oct.', 0.27630725502967834)]</t>
+          <t>[('Af', 0.41095536947250366), ('temperature', 0.3436791002750397), ('low', 0.32709360122680664), ('8', 0.2864746153354645), ('T', 0.27839863300323486)]</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[('Astronomy', 0.23241232335567474), ('Somersaults', 0.21369518339633942), ('Repayment', 0.21110214293003082), ('Subsystems', 0.20564503967761993), ('Unglazed', 0.19089239835739136)]</t>
+          <t>[('Astronomy', 0.23241232335567474), ('Somersaults', 0.21369518339633942), ('Repayment', 0.21110214293003082), ('Subsystems', 0.20564503967761993), ('Unglazed', 0.19737359881401062)]</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[('you', 0.38585975766181946), ("I'll", 0.328254371881485), ('You', 0.3276984691619873), ('going', 0.32244759798049927), ("can't", 0.31723761558532715)]</t>
+          <t>[('you', 0.3679540455341339), ("can't", 0.31656765937805176), ('You', 0.3162437081336975), ("I'll", 0.30977195501327515), ('going', 0.3095634877681732)]</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[('Backbends', 0.23184992372989655), ('Syllabification', 0.22739273309707642), ('Undergraduates', 0.2153121829032898), ('Movies', 0.21037890017032623), ('Status-roles', 0.2015407234430313)]</t>
+          <t>[('Backbends', 0.23184992372989655), ('Syllabification', 0.22739273309707642), ('Undergraduates', 0.2153121829032898), ('Movies', 0.21037890017032623), ('Status-roles', 0.19942384958267212)]</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[('would', 0.30614206194877625), ('should', 0.28253480792045593), ('were', 0.2701959013938904), ('could', 0.27007582783699036), ('will', 0.2640346884727478)]</t>
+          <t>[('would', 0.2859049439430237), ('should', 0.27915525436401367), ('were', 0.2784954607486725), ('could', 0.2516487240791321), ('will', 0.24807751178741455)]</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[('certain', 0.48919185996055603), ('reason', 0.4846247732639313), ('explanation', 0.4711354970932007), ('instance', 0.46174687147140503), ('considerations', 0.4456568956375122)]</t>
+          <t>[('certain', 0.5054711699485779), ('reason', 0.4806046783924103), ('explanation', 0.47925931215286255), ('instance', 0.4779578745365143), ('considerations', 0.4680837094783783)]</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[('1952', 0.46995699405670166), ('1951', 0.4252064526081085), ('published', 0.4203646779060364), ('chairman', 0.4182456433773041), ('1910', 0.4158989191055298)]</t>
+          <t>[('1952', 0.4777368903160095), ('1951', 0.42978575825691223), ('published', 0.4269244372844696), ('August', 0.4242730140686035), ('1958', 0.4224323630332947)]</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[('Thirty-three', 0.24105128645896912), ('Vacations', 0.22202067077159882), (')', 0.2004760354757309), ('Thirty-six', 0.19920122623443604), ('Movies', 0.18306128680706024)]</t>
+          <t>[('Thirty-three', 0.24105128645896912), (')', 0.2230970710515976), ('Vacations', 0.22202067077159882), ('Thirty-six', 0.19920122623443604), ('Movies', 0.18306128680706024)]</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[('Status-roles', 0.24153001606464386), ('Advantages', 0.2387181669473648), ('Plants', 0.23301182687282562), ('Norms', 0.2244107872247696), ('Proprietorship', 0.21959713101387024)]</t>
+          <t>[('Status-roles', 0.24091371893882751), ('Advantages', 0.2387181669473648), ('Plants', 0.23301182687282562), ('Norms', 0.2244107872247696), ('Proprietorship', 0.21959713101387024)]</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[('A5', 0.2692832052707672), ('University', 0.25693750381469727), ('New', 0.24622759222984314), ('York', 0.24502870440483093), ('Phenothiazine', 0.22726383805274963)]</t>
+          <t>[('A5', 0.2868359386920929), ('University', 0.26383066177368164), ('York', 0.2585853040218353), ('New', 0.2522852420806885), ('Phenothiazine', 0.22819454967975616)]</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[('Socialization', 0.234010711312294), ('Backbends', 0.23240289092063904), ('(', 0.22883249819278717), ('Boonton', 0.21842016279697418), ('Sulfaquinoxaline', 0.21051502227783203)]</t>
+          <t>[('Backbends', 0.23240289092063904), ('Socialization', 0.23009955883026123), ('Boonton', 0.21842016279697418), ('Sulfaquinoxaline', 0.21238508820533752), ('(', 0.2094322293996811)]</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[('with', 0.3373621702194214), ('so', 0.33359017968177795), ('friends', 0.30752265453338623), ('yet', 0.2681586742401123), ('Keeeerist', 0.2619163393974304)]</t>
+          <t>[('with', 0.39249545335769653), ('so', 0.3504433333873749), ('friends', 0.3286951780319214), ('Keeeerist', 0.28638485074043274), ('up', 0.28257977962493896)]</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[('Swiftly', 0.4292955696582794), ('Club', 0.4228249192237854), ('sorcery', 0.41498345136642456), ('McCormack', 0.4091343283653259), ('Golda', 0.40429502725601196)]</t>
+          <t>[('Swiftly', 0.43530330061912537), ('sorcery', 0.4184338450431824), ('Beaming', 0.4127057194709778), ('Club', 0.41158047318458557), ('Golda', 0.41133591532707214)]</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[('City', 0.27052727341651917), ('during', 0.26398542523384094), ('school', 0.25804588198661804), ('Assessment', 0.25640344619750977), ('cent', 0.2500293552875519)]</t>
+          <t>[('during', 0.2803100645542145), ('City', 0.27019649744033813), ('cent', 0.2612122595310211), ('school', 0.256546288728714), ('weeks', 0.2536284923553467)]</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[('He', 0.42944467067718506), ('Transitional', 0.3363687992095947), ('Exploratory', 0.3353998064994812), ('Antisubmarine', 0.3327891230583191), ('job', 0.33134394884109497)]</t>
+          <t>[('He', 0.42382392287254333), ('Expected', 0.350883811712265), ('Transitional', 0.35022690892219543), ('Looked', 0.3477069139480591), ('toweling', 0.3438880443572998)]</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[('United', 0.433284193277359), ('West', 0.40806397795677185), ('States', 0.4077922999858856), ('Britain', 0.4071269929409027), ('South', 0.4062904119491577)]</t>
+          <t>[('South', 0.4195324778556824), ('United', 0.41781583428382874), ('West', 0.4137956500053406), ('States', 0.3977333903312683), ('Southern', 0.39175280928611755)]</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[('does', 0.32979312539100647), ('For', 0.3259827792644501), ('?', 0.32334229350090027), ('In', 0.3180961608886719), ('do', 0.28509974479675293)]</t>
+          <t>[('For', 0.3513917326927185), ('In', 0.30869632959365845), ('does', 0.3031580448150635), ('?', 0.2969224452972412), ('do', 0.29254046082496643)]</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[('take', 0.446767657995224), ('this', 0.43678784370422363), ('our', 0.4291359484195709), ('ready', 0.4095950722694397), ('able', 0.4080210030078888)]</t>
+          <t>[('take', 0.49077221751213074), ('this', 0.4746633768081665), ('our', 0.4434478282928467), ('able', 0.42226672172546387), ('ready', 0.4220617413520813)]</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[('Subdued', 0.4442462623119354), ('An', 0.3250844478607178), ('Your', 0.31297048926353455), ('Bananas', 0.2975688576698303), ('Praises', 0.288265198469162)]</t>
+          <t>[('Subdued', 0.44633081555366516), ('An', 0.34618908166885376), ('Your', 0.32812556624412537), ('no', 0.32265156507492065), ('Bananas', 0.31567782163619995)]</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[('houses', 0.5279740691184998), ('large', 0.4969692528247833), ('range', 0.4955904483795166), ('units', 0.4814852774143219), ('spenders', 0.47273921966552734)]</t>
+          <t>[('houses', 0.4869627058506012), ('range', 0.4811919927597046), ('between', 0.4655693769454956), ('large', 0.4600960314273834), ('units', 0.4552404582500458)]</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[('program', 0.3928290009498596), ('such', 0.3580302298069), ('basis', 0.35653916001319885), ('study', 0.3503709137439728), ('period', 0.3498494029045105)]</t>
+          <t>[('program', 0.39284032583236694), ('period', 0.3573436141014099), ('study', 0.3537713587284088), ('basis', 0.34722182154655457), ('data', 0.3344270884990692)]</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[('four', 0.3354186713695526), ('Morale', 0.3198626637458801), ('three', 0.3131108582019806), ('Hyena', 0.30534276366233826), ('Three', 0.2618117332458496)]</t>
+          <t>[('Morale', 0.33035966753959656), ('four', 0.3214385509490967), ('Hyena', 0.31437352299690247), ('three', 0.3066932260990143), ('Reflex', 0.26671579480171204)]</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[('end', 0.30907583236694336), ('process', 0.2722848951816559), ('period', 0.2600821852684021), ('carbon', 0.2546446621417999), ('any', 0.25316891074180603)]</t>
+          <t>[('end', 0.29629722237586975), ('process', 0.2923474907875061), ('carbon', 0.26940619945526123), ('image', 0.26602452993392944), ('increase', 0.25959035754203796)]</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[('her', 0.2853497862815857), ('their', 0.25909242033958435), ('Then', 0.2351837307214737), ('Sulfaquinoxaline', 0.23443345725536346), ('Nightclubs', 0.21910162270069122)]</t>
+          <t>[('her', 0.27547428011894226), ('Sulfaquinoxaline', 0.24177014827728271), ('their', 0.22112081944942474), ('Nightclubs', 0.21910162270069122), ('She', 0.21890904009342194)]</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[('where', 0.4379846751689911), ('from', 0.33508941531181335), ('inside', 0.3260664939880371), ('All', 0.321271151304245), ('in', 0.31482428312301636)]</t>
+          <t>[('where', 0.40136751532554626), ('All', 0.3020192086696625), ("''", 0.2956687808036804), ('whose', 0.2852398157119751), ('without', 0.27980008721351624)]</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[('added', 0.27905046939849854), ('rate', 0.2730802893638611), ('Achieving', 0.26037290692329407), ('Oxygen', 0.2501039206981659), ('high', 0.24920019507408142)]</t>
+          <t>[('added', 0.29159605503082275), ('Oxygen', 0.26354745030403137), ('rate', 0.2627987563610077), ('provide', 0.26210296154022217), ('Achieving', 0.26037290692329407)]</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[('Thirty-six', 0.2757660746574402), ('Nightclubs', 0.22618362307548523), ('7-5', 0.2220524549484253), ('Secretion', 0.21412396430969238), ('Dairy', 0.20289555191993713)]</t>
+          <t>[('Thirty-six', 0.2757660746574402), ('Nightclubs', 0.22618362307548523), ('7-5', 0.2220524549484253), ('Secretion', 0.21412396430969238), ('!', 0.20970815420150757)]</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[('Court', 0.3159867525100708), ('Thirty-six', 0.2728946805000305), ('Nightclubs', 0.21819210052490234), ('Undergraduates', 0.2149232178926468), ('Proprietorship', 0.20119069516658783)]</t>
+          <t>[('Court', 0.2855857014656067), ('Thirty-six', 0.2728946805000305), ('Nightclubs', 0.21819210052490234), ('Undergraduates', 0.2149232178926468), ('Proprietorship', 0.20119069516658783)]</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[('available', 0.4423653781414032), ('economic', 0.4215456247329712), ('funds', 0.40362614393234253), ('due', 0.3922051191329956), ('future', 0.38776522874832153)]</t>
+          <t>[('economic', 0.46170487999916077), ('available', 0.43968069553375244), ('funds', 0.41365155577659607), ('future', 0.4025740325450897), ('opportunities', 0.40214812755584717)]</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[('Mrs.', 0.308856725692749), ('Mr.', 0.2982458472251892), ('William', 0.29063713550567627), ('A.', 0.2742103338241577), ('Attorney', 0.27021050453186035)]</t>
+          <t>[('Mrs.', 0.29050037264823914), ('William', 0.2903977632522583), ('Attorney', 0.2733505070209503), ('Mr.', 0.26062729954719543), ('A.', 0.2605956494808197)]</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[('Meats', 0.23889155685901642), ('Goddammit', 0.22959581017494202), ('Trim-your-own-franks', 0.22546739876270294), ('Status-roles', 0.22425799071788788), ('Norms', 0.22208477556705475)]</t>
+          <t>[('Meats', 0.23889155685901642), ('Goddammit', 0.22959581017494202), ('Trim-your-own-franks', 0.22546739876270294), ('Status-roles', 0.22400815784931183), ('Norms', 0.22208477556705475)]</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>[('Secretary', 0.33558762073516846), ('Footnotes', 0.31173035502433777), ('follows', 0.30953845381736755), ('C', 0.30121439695358276), ('Commerce', 0.29737022519111633)]</t>
+          <t>[('Secretary', 0.30754730105400085), ('Footnotes', 0.3015446364879608), ('follows', 0.2946343719959259), ('&amp;', 0.2914879024028778), ('Commerce', 0.28634965419769287)]</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[('late', 0.3753708004951477), ('became', 0.3719256520271301), ('early', 0.3610897362232208), ('happened', 0.35253626108169556), ('came', 0.3355352282524109)]</t>
+          <t>[('late', 0.371410071849823), ('became', 0.3612922430038452), ('early', 0.3416300415992737), ('came', 0.3394681513309479), ('happened', 0.33881738781929016)]</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[('soothingly', 0.3074408173561096), ('an', 0.29953235387802124), ('Rak', 0.2944185733795166), ('noncommittally', 0.28847742080688477), ('Nearness', 0.2826879918575287)]</t>
+          <t>[('an', 0.33612242341041565), ('soothingly', 0.3224947154521942), ('noncommittally', 0.29096078872680664), ('Rak', 0.2906995713710785), ('Nearness', 0.28613343834877014)]</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[('No', 0.33965805172920227), ('ever', 0.3230866491794586), ('more', 0.30890610814094543), ('nothing', 0.30505669116973877), ('anything', 0.30012497305870056)]</t>
+          <t>[('more', 0.30844631791114807), ('No', 0.2943784296512604), ('ever', 0.29006460309028625), ('anything', 0.2857888638973236), ('me', 0.2855184078216553)]</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>[('no', 0.2960320711135864), ('Mrs.', 0.28436630964279175), ('asked', 0.2691728174686432), ('Plants', 0.246857687830925), ('Nightclubs', 0.2390473634004593)]</t>
+          <t>[('no', 0.2787816524505615), ('Mrs.', 0.2742810547351837), ('asked', 0.2694315016269684), ('Plants', 0.246857687830925), ('any', 0.24337421357631683)]</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>[('many', 0.32187631726264954), ("you're", 0.3190072476863861), ('tell', 0.315369188785553), ("don't", 0.29733067750930786), ("they're", 0.2969515025615692)]</t>
+          <t>[('many', 0.3411441147327423), ("you're", 0.3238237500190735), ('tell', 0.32217442989349365), ("they're", 0.31111690402030945), ('feel', 0.3105582594871521)]</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>[('hear', 0.37223100662231445), ('thing', 0.37089574337005615), ('know', 0.3484710156917572), ('spirit', 0.34207165241241455), ('That', 0.34062933921813965)]</t>
+          <t>[('thing', 0.3790358901023865), ('hear', 0.35821178555488586), ('truth', 0.34853634238243103), ('spirit', 0.3472067713737488), ('really', 0.34032270312309265)]</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>[('been', 0.3383764326572418), ('recently', 0.2661157548427582), ('example', 0.2599256932735443), ('or', 0.25907769799232483), ('named', 0.24999818205833435)]</t>
+          <t>[('been', 0.35577914118766785), ('recently', 0.27076658606529236), ('or', 0.2542496621608734), ('since', 0.25135961174964905), ('example', 0.24579080939292908)]</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>[('Of', 0.2933746576309204), ('be', 0.2776663303375244), ('Achieving', 0.26161453127861023), ('at', 0.2531804144382477), ('are', 0.2439824491739273)]</t>
+          <t>[('Of', 0.30017155408859253), ('be', 0.2823801636695862), ('at', 0.26803943514823914), ('are', 0.26536864042282104), ('Achieving', 0.26161453127861023)]</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>[('very', 0.46922779083251953), ('But', 0.45869022607803345), ('played', 0.4585006833076477), ('looks', 0.4502887427806854), ('And', 0.43961188197135925)]</t>
+          <t>[('But', 0.47380056977272034), ('And', 0.4646950364112854), ('looks', 0.46268555521965027), ('very', 0.45360419154167175), ('played', 0.45252394676208496)]</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>[('own', 0.25514623522758484), ('Frame', 0.23584944009780884), ('private', 0.23513443768024445), ('Impatiently', 0.23030687868595123), ('5.4', 0.22425812482833862)]</t>
+          <t>[('own', 0.2622266709804535), ('private', 0.2394811064004898), ('Frame', 0.23584944009780884), ('political', 0.23167094588279724), ('Impatiently', 0.23030687868595123)]</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>[('against', 0.3520466089248657), ('or', 0.33298027515411377), ('gun', 0.31744384765625), ('side', 0.31701424717903137), ('shoulders', 0.3147146701812744)]</t>
+          <t>[('against', 0.3715016841888428), ('or', 0.33267319202423096), ('wall', 0.3322161138057709), ('side', 0.33178961277008057), ('eye', 0.3317868113517761)]</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[('others', 0.37445980310440063), ('something', 0.35578247904777527), ('felt', 0.35048708319664), ("he'd", 0.33586791157722473), ('at', 0.32345372438430786)]</t>
+          <t>[('others', 0.38317063450813293), ('something', 0.35185274481773376), ('felt', 0.34932398796081543), ('again', 0.3398497402667999), ('never', 0.33760830760002136)]</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[('Oxidation', 0.2977076768875122), ('2.1.6', 0.29641127586364746), ('its', 0.28787997364997864), ('Expresses', 0.2865161895751953), ('Coolest', 0.27951687574386597)]</t>
+          <t>[('Oxidation', 0.3067110478878021), ('2.1.6', 0.30244171619415283), ('its', 0.28705254197120667), ('Coolest', 0.28610506653785706), ('Expresses', 0.28560104966163635)]</t>
         </is>
       </c>
     </row>
@@ -8512,6 +8512,6006 @@
       <c r="D404" t="inlineStr">
         <is>
           <t>[('Vanhoozer', 0.2818939983844757), ('hurling_invective', 0.26223212480545044), ('Silliman', 0.26161789894104004), ('Hayet', 0.26142585277557373), ('Haykal', 0.2592567503452301)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>0</v>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>[('A', 0.14273430407047272), ('a', 0.10745548456907272), ('Subsystems', 0.09826815873384476), ('Molding', 0.09196563065052032), ('Burke-Rostagno', 0.09187208116054535)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>1</v>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>[('daughter', 0.2210974246263504), ('friend', 0.21440504491329193), ('A.', 0.214154914021492), ('John', 0.21368074417114258), ('son', 0.2080899327993393)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>2</v>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>[('In', 0.12714824080467224), ('ngandlu', 0.11271759867668152), ('addition', 0.11138509958982468), ('Undergraduates', 0.09462209790945053), ('out', 0.09105318784713745)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>3</v>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>[('In', 0.18126927316188812), ('in', 0.1789100468158722), ('War', 0.16473416984081268), ('1958', 0.1597437709569931), ('Civil', 0.15841354429721832)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>4</v>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>[('an', 0.13880297541618347), ('Socialization', 0.115407295525074), (')', 0.10749687999486923), ('Pathology', 0.10637477785348892), ('Achieving', 0.10593438893556595)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>5</v>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>[('Meats', 0.10086500644683838), ('Advantages', 0.09650781750679016), ('Proprietorship', 0.09262585639953613), ('Deterrent', 0.09226523339748383), ('7-5', 0.09132540971040726)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>6</v>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>[('?', 0.14116981625556946), ('has', 0.12343508005142212), ('comes', 0.11877419054508209), ('any', 0.10897599905729294), ('something', 0.108819380402565)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>7</v>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>[('cup', 0.19111397862434387), ('Testifies', 0.18376058340072632), ('seven-stories', 0.18085242807865143), ('lb.', 0.18081964552402496), ('rpm', 0.18067318201065063)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>8</v>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>[('County', 0.1159670352935791), ('S.', 0.11033063381910324), ('University', 0.10686642676591873), ('followed', 0.10271476954221725), ('Advantages', 0.10097581148147583)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>9</v>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>[('Poultry', 0.09620045125484467), ('Thirty-four', 0.08853171020746231), ('about', 0.08152470737695694), ('Subsystems', 0.07744694501161575), ('B.', 0.0675821602344513)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>10</v>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>[('President', 0.13174064457416534), ('week', 0.11832791566848755), ('House', 0.11598324030637741), ('World', 0.11569637060165405), ('War', 0.11527936160564423)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>11</v>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>[('Proprietorship', 0.09938914328813553), ('P.S.', 0.09698016941547394), ('Thirty-four', 0.09399819374084473), ('Softly', 0.09149526059627533), ('Keerist', 0.07576733082532883)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>12</v>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>[('Nightclubs', 0.09877025336027145), ('Repayment', 0.09394152462482452), ('Status-roles', 0.09123958647251129), ('Advantages', 0.08325906842947006), ('Eligibility', 0.0804770216345787)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>13</v>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>[('school', 0.15232746303081512), ('This', 0.15004977583885193), ('has', 0.14972396194934845), ('New', 0.14890554547309875), ('since', 0.14538165926933289)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>14</v>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>[('Molding', 0.09968891739845276), ('Improvements', 0.09686785936355591), ('Repayment', 0.08795498311519623), ('Subsystems', 0.08783897757530212), ('Months', 0.08443179726600647)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>15</v>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>[('At', 0.1298532783985138), ('wrote', 0.12258712947368622), ('at', 0.11943629384040833), ('I', 0.11728829145431519), ('time', 0.11209813505411148)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>16</v>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>[('not', 0.13166673481464386), ('Achieving', 0.10901407152414322), ('called', 0.10364285856485367), ('may', 0.10285031050443649), ('name', 0.10203265398740768)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>17</v>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>[('example', 0.11779186874628067), ('however', 0.10613381862640381), ('such', 0.10019136965274811), ('instance', 0.09912175685167313), ('when', 0.09890372306108475)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>18</v>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>[('Du', 0.1703275740146637), ('Months', 0.15306560695171356), ('poppies', 0.1522628217935562), ('Division', 0.15181125700473785), ('Asks', 0.14975175261497498)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>19</v>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>[('Somersaults', 0.09422442317008972), ('Keerist', 0.0884961411356926), ('Ranking', 0.08787047863006592), ('Thirty-six', 0.0832182988524437), ('Status-roles', 0.07558909803628922)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>20</v>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>[('my', 0.1046506017446518), ('tried', 0.10400594025850296), ('went', 0.10108708590269089), ('goes', 0.1002800390124321), ('lived', 0.09836515784263611)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>21</v>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>[('We', 0.13416698575019836), ('They', 0.1278620958328247), ('we', 0.1124042272567749), ('them', 0.10555966198444366), ('did', 0.10331805050373077)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>22</v>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>[('an', 0.18823151290416718), ('Replacement', 0.1845903992652893), ('Healthier', 0.176139697432518), ('Coroner', 0.17542704939842224), ("Woodbury's", 0.1750691831111908)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>23</v>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>[('did', 0.1682746708393097), ('asked', 0.15199458599090576), ('heard', 0.14267154037952423), (',', 0.14117935299873352), ('none', 0.14005696773529053)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>24</v>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>[('other', 0.16200748085975647), ('greater', 0.15067201852798462), ('such', 0.1479877084493637), ('liquid', 0.13842329382896423), ('various', 0.1361616998910904)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>25</v>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>[('Street', 0.10927355289459229), ('May', 0.10333969444036484), ('p.m.', 0.102804996073246), ('St.', 0.1007116287946701), ('9', 0.10067891329526901)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>26</v>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>[('Meats', 0.10117962956428528), ('Garments', 0.09897740185260773), ('Status-roles', 0.09794976562261581), ('Advantages', 0.09540585428476334), ('Dairy', 0.0942743569612503)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>27</v>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>[('short', 0.18122628331184387), ('dark', 0.17430365085601807), ('with', 0.15950921177864075), ('narrow', 0.15468324720859528), ('deep', 0.1538020670413971)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>28</v>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>[('7-5', 0.09494904428720474), ('Thirty-four', 0.0854540541768074), ('Trim-your-own-franks', 0.08264991641044617), ('Burke-Rostagno', 0.08020218461751938), ('Repayment', 0.07855435460805893)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>29</v>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>[('Festivals', 0.09189428389072418), ('Repayment', 0.09185594320297241), ('Undergraduates', 0.08984296023845673), ('2.1.6', 0.08832409232854843), ('Burke-Rostagno', 0.08817218244075775)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>30</v>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>[('important', 0.21745063364505768), ('evident', 0.21399138867855072), ('contained', 0.19991201162338257), ('highly', 0.19821587204933167), ('dramatic', 0.19500941038131714)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>31</v>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>[(';', 0.10975728183984756), ('my', 0.10800023376941681), ('of', 0.10275071114301682), ("don't", 0.09730347245931625), ('came', 0.09302856028079987)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>32</v>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>[('each', 0.17736279964447021), ('example', 0.15227307379245758), ('Unglazed', 0.14652933180332184), ('measure', 0.14598138630390167), ('encourage', 0.1434265673160553)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>33</v>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>[('Ugh', 0.11385788768529892), ('tried', 0.10805267095565796), ('has', 0.10794413089752197), ('he', 0.10482242703437805), ('Astronomy', 0.09746001660823822)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>34</v>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>[('Dairy', 0.08584164828062057), ('Advantages', 0.07990211993455887), ('7-5', 0.07444746792316437), ('Frame', 0.07303593307733536), ('Festivals', 0.07177868485450745)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>35</v>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>[('Let', 0.12515020370483398), ('(', 0.12056329846382141), ('You', 0.10865454375743866), ("you'll", 0.10796800255775452), ("can't", 0.10700555890798569)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>36</v>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>[('short', 0.14473272860050201), ('us', 0.13999556005001068), ('Mr.', 0.1389104723930359), ('view', 0.13683560490608215), ('back', 0.1342143565416336)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>37</v>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>[('such', 0.1295667588710785), ('same', 0.12486712634563446), ('follows', 0.09745211154222488), ('Repayment', 0.09614399075508118), ('Sanctions', 0.0959135890007019)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C443" t="n">
+        <v>38</v>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>[('most', 0.12525101006031036), ('been', 0.12097068876028061), ('lack', 0.11645448207855225), ('important', 0.11533360928297043), ('is', 0.1138765960931778)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C444" t="n">
+        <v>39</v>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>[('Palmer', 0.17375078797340393), ('story', 0.16947627067565918), ('After', 0.161138653755188), ('poems', 0.1592751443386078), ('he', 0.15377098321914673)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C445" t="n">
+        <v>40</v>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>[('Goddammit', 0.09536359459161758), ('Somersaults', 0.09315355867147446), ('Poultry', 0.08968459814786911), ('Thirty-four', 0.08791115880012512), ('Subsystems', 0.07014067471027374)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C446" t="n">
+        <v>41</v>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>[('great', 0.10413997620344162), ('came', 0.09886476397514343), ('Status-roles', 0.09607801586389542), ('ago', 0.08614062517881393), ('Sanctions', 0.08570337295532227)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C447" t="n">
+        <v>42</v>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>[('Divergent', 0.16417421400547028), ('president', 0.15499922633171082), ('Cumulative', 0.15483085811138153), ('Flashed', 0.1506580263376236), ('leader', 0.14815591275691986)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C448" t="n">
+        <v>43</v>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>[('As', 0.10254258662462234), ('Movies', 0.10202174633741379), ('Somersaults', 0.09860169887542725), ('Ranking', 0.09375239163637161), ('2.1.6', 0.09080689400434494)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C449" t="n">
+        <v>44</v>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>[('may', 0.15005789697170258), ('Many', 0.14582736790180206), ('must', 0.1457339972257614), ('might', 0.14534403383731842), ('altered', 0.1440756618976593)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C450" t="n">
+        <v>45</v>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>[('Blasphemous', 0.14187224209308624), ('employees', 0.1316952258348465), ('Lake', 0.12935395538806915), ('workers', 0.12609335780143738), ('countries', 0.1246422529220581)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C451" t="n">
+        <v>46</v>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>[('bogies', 0.15668761730194092), ('Workmen', 0.1541675478219986), ('admired', 0.15297839045524597), ('missed', 0.1500442773103714), ('soothingly', 0.14679482579231262)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C452" t="n">
+        <v>47</v>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>[('Syllabification', 0.09867118299007416), ('Plants', 0.09362279623746872), ('Boonton', 0.08932507783174515), ('Secretion', 0.08851433545351028), ('Advantages', 0.08840666711330414)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C453" t="n">
+        <v>48</v>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>[('said', 0.1704632192850113), ('learned', 0.13717317581176758), ('comment', 0.137009859085083), ('own', 0.13516391813755035), ('mind', 0.13503018021583557)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C454" t="n">
+        <v>49</v>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>[('v.', 0.18529446423053741), (')', 0.17329007387161255), ('Commission', 0.17198577523231506), ('Director', 0.17097385227680206), ('Co.', 0.1703232377767563)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C455" t="n">
+        <v>50</v>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>[('out', 0.12669715285301208), ('where', 0.12275934219360352), ('around', 0.11045081913471222), ('were', 0.10918594896793365), ('who', 0.1005871593952179)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C456" t="n">
+        <v>51</v>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>[('Wow', 0.13708801567554474), ('plant', 0.13471271097660065), ('Ronnel', 0.13079942762851715), ('grant', 0.1306551992893219), ('income', 0.12765008211135864)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C457" t="n">
+        <v>52</v>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>[('Poultry', 0.09855016320943832), ('to', 0.09792335331439972), ('cannot', 0.0934988409280777), ('Plants', 0.09260918945074081), ('Secretion', 0.09225845336914062)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>53</v>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>[(';', 0.14559753239154816), ('by', 0.12048651278018951), ('or', 0.1200481653213501), ('without', 0.1052943617105484), ('be', 0.09643784910440445)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C459" t="n">
+        <v>54</v>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>[('Unglazed', 0.10439775139093399), ('make', 0.1042075976729393), ('made', 0.10254107415676117), ('change', 0.10191002488136292), ('act', 0.10074836760759354)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C460" t="n">
+        <v>55</v>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>[('Regrets', 0.16452181339263916), ('7:50', 0.1581421196460724), ('1-o', 0.1581241488456726), ('Run-down', 0.15806829929351807), ('Deactivation', 0.1572568267583847)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C461" t="n">
+        <v>56</v>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>[('barkeep', 0.1544177532196045), ('ngandlu', 0.15149670839309692), ('Service', 0.14998915791511536), ('S.', 0.14975133538246155), ('U.', 0.14210771024227142)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C462" t="n">
+        <v>57</v>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>[('all', 0.10729143023490906), ('Poultry', 0.0971580371260643), ('Meats', 0.09652971476316452), ('Improvements', 0.09288063645362854), ('Secretion', 0.09187907725572586)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C463" t="n">
+        <v>58</v>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>[('where', 0.12222170829772949), ('As', 0.12185607105493546), ('(', 0.12017490714788437), ('since', 0.1075005829334259), ('Thus', 0.10177715122699738)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>59</v>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>[('Norms', 0.09908001124858856), ('Molding', 0.09636323153972626), ('Syllabification', 0.09335010498762131), ('7-5', 0.09068613499403), ('would', 0.08232799917459488)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>60</v>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>[('prepared', 0.12410103529691696), ('soon', 0.1221570149064064), ('treated', 0.11849936097860336), ('should', 0.11695774644613266), ('fed', 0.11474871635437012)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>61</v>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>[('him', 0.12656523287296295), ('into', 0.1259257197380066), ('himself', 0.11586933583021164), ('itself', 0.10989382117986679), ('forced', 0.10946682840585709)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C467" t="n">
+        <v>62</v>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>[('Festivals', 0.07691584527492523), ('Secretion', 0.07481329888105392), ('since', 0.07361376285552979), ('Parichy-Hamm', 0.0724775418639183), ('After', 0.06859415024518967)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C468" t="n">
+        <v>63</v>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>[('complex', 0.1566431224346161), ('concerned', 0.1562238186597824), ('pure', 0.15556882321834564), ('physical', 0.1542332023382187), ('agent', 0.15415671467781067)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>64</v>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>[('Frank', 0.13481546938419342), ('Daily', 0.13453984260559082), ('A', 0.13218948245048523), ('up-pp', 0.12949776649475098), ('St.', 0.12667259573936462)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C470" t="n">
+        <v>65</v>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>[('kind', 0.14720970392227173), ('care', 0.13556529581546783), ("doesn't", 0.1312950700521469), ('look', 0.1302204430103302), ('my', 0.1256030946969986)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>66</v>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>[('below', 0.14969883859157562), ('inches', 0.14320407807826996), ('Disadvantages', 0.14071595668792725), ('feet', 0.14052243530750275), ('15', 0.13651695847511292)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>67</v>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>[('Co.', 0.10152772814035416), ('acres', 0.09900249540805817), ('than', 0.09879083931446075), ('Diethylstilbestrol', 0.09785550087690353), ('South', 0.09678347408771515)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>68</v>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>[('Secretion', 0.09139486402273178), ('Undergraduates', 0.08470331132411957), ('Proprietorship', 0.07444436848163605), ('did', 0.06573344022035599), ('Condensation', 0.057242438197135925)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>69</v>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>[('said', 0.14052332937717438), ('had', 0.13092102110385895), ('where', 0.12953978776931763), ('called', 0.12795214354991913), ('behind', 0.12371078878641129)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>70</v>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>[('many', 0.2042429894208908), ('older', 0.18786892294883728), ('were', 0.18718883395195007), ('among', 0.1794956922531128), ('several', 0.17736268043518066)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C476" t="n">
+        <v>71</v>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>[("'", 0.10502247512340546), ('own', 0.1049269586801529), (';', 0.0986965075135231), ('Deportees', 0.0977930948138237), ('its', 0.09719161689281464)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>72</v>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>[('Achieving', 0.11099925637245178), ('around', 0.10707774758338928), ('only', 0.10366293042898178), ('back', 0.10140524059534073), ('we', 0.10122992098331451)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C478" t="n">
+        <v>73</v>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>[('Miss', 0.10459568351507187), ('Molding', 0.10059011727571487), ("''", 0.09981127828359604), (',', 0.09608062356710434), ('Mr.', 0.09542480111122131)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C479" t="n">
+        <v>74</v>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>[('place', 0.14149251580238342), ('addition', 0.11867940425872803), ('spite', 0.11334972828626633), ('aid', 0.11294811964035034), ('city', 0.1117699071764946)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C480" t="n">
+        <v>75</v>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>[('will', 0.12487144768238068), ('day', 0.11445394158363342), ('did', 0.11392493546009064), ('should', 0.11063015460968018), ('just', 0.1056564673781395)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C481" t="n">
+        <v>76</v>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>[('one', 0.11629437655210495), ('home', 0.10800968110561371), ('``', 0.10793837159872055), ('walked', 0.10705095529556274), ('New', 0.10343146324157715)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C482" t="n">
+        <v>77</v>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>[('?', 0.14266742765903473), ('life', 0.13296176493167877), ('your', 0.10865949839353561), ('my', 0.10450443625450134), ('experience', 0.10323081165552139)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C483" t="n">
+        <v>78</v>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>[('For', 0.11314181238412857), ('or', 0.1035526916384697), (';', 0.0949864313006401), ('In', 0.09375445544719696), ('Movies', 0.09214653074741364)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C484" t="n">
+        <v>79</v>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>[('7-5', 0.10272771865129471), ('Boonton', 0.10174804925918579), ('other', 0.10168524086475372), ('Of', 0.10094240307807922), ('these', 0.10071522742509842)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C485" t="n">
+        <v>80</v>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>[('Advantages', 0.10123158246278763), ('Subsystems', 0.09067639708518982), ('Norms', 0.08899557590484619), ('Astronomy', 0.08896443247795105), ('Parichy-Hamm', 0.08190048485994339)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C486" t="n">
+        <v>81</v>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>[('my', 0.13382063806056976), ('your', 0.11716805398464203), ('by', 0.10405796766281128), ('their', 0.10323041677474976), ('?', 0.09875020384788513)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C487" t="n">
+        <v>82</v>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>[('Calves', 0.10046451538801193), ('Improvements', 0.09686466306447983), ('Trim-your-own-franks', 0.092665895819664), ('Condensation', 0.08871117234230042), ('Burke-Rostagno', 0.08543302118778229)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C488" t="n">
+        <v>83</v>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>[('university', 0.20308372378349304), ('power', 0.19800467789173126), ('nations', 0.19678740203380585), ('heart', 0.19635939598083496), ('age', 0.1958564668893814)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C489" t="n">
+        <v>84</v>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>[('Months', 0.14331844449043274), ('has', 0.13782189786434174), ('been', 0.12591663002967834), ('president', 0.11066728830337524), ('variety', 0.10992571711540222)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C490" t="n">
+        <v>85</v>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>[('out', 0.11551813036203384), ('up', 0.11354951560497284), ('2-3', 0.10915166139602661), ('A5', 0.10913413017988205), ('2-4', 0.1035110205411911)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C491" t="n">
+        <v>86</v>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>[('Sulfaquinoxaline', 0.13200479745864868), ('for', 0.11211659014225006), ('There', 0.11083061248064041), ('ago', 0.10079801827669144), ('this', 0.10006393492221832)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C492" t="n">
+        <v>87</v>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>[('F.', 0.13295045495033264), ('J.', 0.13193213939666748), ('Howard', 0.13192155957221985), ('Arianist', 0.13057349622249603), ('Flashed', 0.12906469404697418)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C493" t="n">
+        <v>88</v>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>[('reason', 0.20525620877742767), ('harder', 0.19952240586280823), ('explain', 0.19682659208774567), ('assert', 0.19451414048671722), ('anyone', 0.19350820779800415)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C494" t="n">
+        <v>89</v>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>[('make', 0.19766615331172943), ('great', 0.1819462925195694), ('machine', 0.172743558883667), ('business', 0.1719132661819458), ('between', 0.17025712132453918)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C495" t="n">
+        <v>90</v>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>[('off', 0.14419464766979218), ('time', 0.14242684841156006), ('I', 0.13934136927127838), ('Af', 0.13724932074546814), ('point', 0.1297818124294281)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C496" t="n">
+        <v>91</v>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>[('Island', 0.11160759627819061), ('State', 0.10936257988214493), ('D.C.', 0.10788563638925552), ('Providence', 0.10384295135736465), ('School', 0.10151351243257523)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C497" t="n">
+        <v>92</v>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>[('-', 0.1559792011976242), ('lb.', 0.1492319256067276), ('23', 0.13487842679023743), ('million', 0.13398005068302155), ('100', 0.13319328427314758)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C498" t="n">
+        <v>93</v>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>[('so', 0.10122877359390259), ('Seafood', 0.09862413257360458), ('Backbends', 0.0985763818025589), ('rate', 0.09841479361057281), ('hour', 0.09838421642780304)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C499" t="n">
+        <v>94</v>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>[('chairman', 0.17770229279994965), ('Charles', 0.16652314364910126), ('Henry', 0.16461722552776337), ('Robert', 0.16401991248130798), ('second', 0.15532901883125305)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C500" t="n">
+        <v>95</v>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>[('Do', 0.13175563514232635), ('am', 0.1312112659215927), ('your', 0.12901772558689117), ('you', 0.12900115549564362), ("you're", 0.12478221952915192)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C501" t="n">
+        <v>96</v>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>[('?', 0.15074767172336578), ('call', 0.1263575255870819), ('him', 0.12142108380794525), ('job', 0.1167517825961113), ('got', 0.11665447801351547)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C502" t="n">
+        <v>97</v>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>[('bring', 0.12383762747049332), ('block', 0.11999890953302383), ('with', 0.11611458659172058), ("doesn't", 0.11317592859268188), ('buy', 0.11067688465118408)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C503" t="n">
+        <v>98</v>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>[('essential', 0.13626053929328918), ('cities', 0.1309891790151596), ('major', 0.12780609726905823), ('high', 0.12780140340328217), ('area', 0.1274339258670807)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C504" t="n">
+        <v>99</v>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>[('own', 0.11639869213104248), ('Molding', 0.1047104001045227), ('Somersaults', 0.10090069472789764), ('Proprietorship', 0.09952878206968307), ('Eligibility', 0.09336642920970917)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C505" t="n">
+        <v>100</v>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>[(';', 0.11750949174165726), ('Sanctions', 0.10104090720415115), ('upon', 0.09325200319290161), ('P.S.', 0.08440066874027252), ('A5', 0.08056928962469101)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C506" t="n">
+        <v>101</v>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>[('had', 0.11692963540554047), ('returned', 0.11157744377851486), ('died', 0.11154461652040482), ('came', 0.10919129848480225), ('her', 0.10900008678436279)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C507" t="n">
+        <v>102</v>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>[('despises', 0.11712247133255005), ('Flashed', 0.11319860816001892), ('reddened', 0.11172029376029968), ('Hamburger', 0.10810452699661255), ('polysiloxanes', 0.10573301464319229)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C508" t="n">
+        <v>103</v>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>[('way', 0.13941814005374908), ('time', 0.13422918319702148), ('I', 0.1293834000825882), ("didn't", 0.12675786018371582), ('could', 0.12409620732069016)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C509" t="n">
+        <v>104</v>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>[('Requirements', 0.09243609756231308), ('Subsystems', 0.09109058976173401), ('Repayment', 0.08857133239507675), ('Burke-Rostagno', 0.08354222774505615), ('Subjects', 0.07694776356220245)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C510" t="n">
+        <v>105</v>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>[('Keerist', 0.10323087871074677), ('Somersaults', 0.1013328805565834), ('Plants', 0.10093816369771957), ('Condensation', 0.08975856751203537), ('Backbends', 0.07482373714447021)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C511" t="n">
+        <v>106</v>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>[('!', 0.11521566659212112), ('over', 0.10833470523357391), ('down', 0.10695613920688629), ('away', 0.10451596230268478), ('back', 0.10329937934875488)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C512" t="n">
+        <v>107</v>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>[('for', 0.21135486662387848), ('to', 0.13968850672245026), ('To', 0.12808625400066376), ('For', 0.11873925477266312), ('Corollary', 0.11427683383226395)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C513" t="n">
+        <v>108</v>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>[('on', 0.15187206864356995), ('up', 0.14135922491550446), ('off', 0.128237783908844), ('Movies', 0.10145372152328491), ('Somersaults', 0.09957011044025421)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C514" t="n">
+        <v>109</v>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>[('P.S.', 0.09218382090330124), ('seemed', 0.09146590530872345), ('Warmly', 0.09039220958948135), ('Syllabification', 0.09014515578746796), ('than', 0.08971232920885086)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C515" t="n">
+        <v>110</v>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>[('other', 0.12070050090551376), ('These', 0.10149430483579636), ('Molding', 0.09509196132421494), ('Sanctions', 0.08835306763648987), ('would', 0.07930899411439896)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C516" t="n">
+        <v>111</v>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>[('A.', 0.13177995383739471), ('named', 0.12580296397209167), ('Jr.', 0.12034302949905396), ('Schmalma', 0.10909710824489594), ('George', 0.10732041299343109)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C517" t="n">
+        <v>112</v>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>[('basis', 0.11970153450965881), ('Socialization', 0.11738210171461105), ('maintenance', 0.11471916735172272), ('methods', 0.10960115492343903), ('data', 0.108578160405159)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C518" t="n">
+        <v>113</v>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>[('Achieving', 0.128621906042099), ('Deportees', 0.11945423483848572), ('Corollary', 0.11487919092178345), ('Norms', 0.11293859779834747), ('year', 0.11160732060670853)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C519" t="n">
+        <v>114</v>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>[('United', 0.13756217062473297), ('New', 0.13243605196475983), ("''", 0.1315079778432846), ('from', 0.13030894100666046), ('one', 0.12627387046813965)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C520" t="n">
+        <v>115</v>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>[('who', 0.16732871532440186), ('them', 0.15203319489955902), ('away', 0.14940762519836426), ('down', 0.14323438704013824), ('three-front', 0.14172771573066711)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C521" t="n">
+        <v>116</v>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>[('has', 0.1408388614654541), ('most', 0.12183702737092972), ('more', 0.11818482726812363), ('less', 0.10748304426670074), ('rather', 0.10717380046844482)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C522" t="n">
+        <v>117</v>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>[('President', 0.1556728184223175), ('Mr.', 0.1516658216714859), ('His', 0.15069124102592468), ('Kennedy', 0.14337314665317535), ('General', 0.1401958465576172)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C523" t="n">
+        <v>118</v>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>[('Puppies', 0.1345091611146927), ('said', 0.13408729434013367), ('uh-huh', 0.128373384475708), ("''", 0.12788444757461548), ('Ugh', 0.12625287473201752)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C524" t="n">
+        <v>119</v>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>[('Calves', 0.1010499820113182), ('Thirty-three', 0.09710078686475754), ('Advantages', 0.0947217047214508), ('Repayment', 0.0896868109703064), ('Keerist', 0.08933693170547485)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C525" t="n">
+        <v>120</v>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>[('or', 0.18642540276050568), ('upon', 0.14656168222427368), ('image', 0.1389177143573761), ('if', 0.13653770089149475), ('level', 0.13072095811367035)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C526" t="n">
+        <v>121</v>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>[('below', 0.15090180933475494), ('brothers', 0.141222283244133), ('over', 0.14111053943634033), ('6', 0.14061826467514038), ('companies', 0.13521449267864227)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C527" t="n">
+        <v>122</v>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>[('used', 0.24773649871349335), ('Since', 0.2276168018579483), ('but', 0.22669701278209686), ('known', 0.2257276326417923), ('found', 0.22444741427898407)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C528" t="n">
+        <v>123</v>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>[('from', 0.10770981758832932), ('hoaxes', 0.09419947117567062), ('Advantages', 0.09068337827920914), ('Poultry', 0.09054592251777649), ('P.S.', 0.08924010396003723)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C529" t="n">
+        <v>124</v>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>[('General', 0.17095860838890076), ('means', 0.1609525978565216), ('Secretary', 0.1586800515651703), ('such', 0.14396724104881287), ('course', 0.14053259789943695)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C530" t="n">
+        <v>125</v>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>[('Achieving', 0.15545059740543365), ('them', 0.14531926810741425), ('Autocollimator', 0.1380515694618225), ('Sentiment', 0.12708330154418945), ('along', 0.12666092813014984)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C531" t="n">
+        <v>126</v>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>[('for', 0.10575661808252335), ('Pathology', 0.10222303867340088), ('Achieving', 0.09641053527593613), ('Medical', 0.09559226036071777), ('No-o-o', 0.09534569829702377)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C532" t="n">
+        <v>127</v>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>[('(', 0.10020734369754791), (':', 0.09950315207242966), ('Softly', 0.0981614962220192), ('Eligibility', 0.0979381874203682), ('Backbends', 0.09743542224168777)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C533" t="n">
+        <v>128</v>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>[('hundred', 0.11461547017097473), ('less', 0.11350161582231522), ('miles', 0.11297982186079025), ('without', 0.1068963035941124), ('Disadvantages', 0.10517662018537521)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C534" t="n">
+        <v>129</v>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>[('system', 0.1628064215183258), ('century', 0.16203810274600983), ('program', 0.1590902954339981), ('service', 0.15262041985988617), ('period', 0.1483311802148819)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C535" t="n">
+        <v>130</v>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>[('points', 0.13137124478816986), ('Phenothiazine', 0.1242285966873169), ('numbers', 0.12055394798517227), ('some', 0.12003238499164581), ('cities', 0.11954406648874283)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C536" t="n">
+        <v>131</v>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>[('believe', 0.12938685715198517), ("'", 0.1177842766046524), ('Lookit', 0.11624453216791153), ('know', 0.11430365592241287), ('nuts', 0.11380332708358765)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C537" t="n">
+        <v>132</v>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>[('Regrets', 0.137325718998909), ('not', 0.1331404596567154), ("'", 0.12810197472572327), ('chief', 0.12431859970092773), ('recommended', 0.12218834459781647)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C538" t="n">
+        <v>133</v>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>[('hoaxes', 0.09882599115371704), ('Condensation', 0.08221414685249329), ('Undergraduates', 0.08084924519062042), ('Thirty-six', 0.07532401382923126), ('P.S.', 0.06844701617956161)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C539" t="n">
+        <v>134</v>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>[('State', 0.12536261975765228), ('on', 0.1202375665307045), ('&amp;', 0.11908240616321564), ('obtained', 0.114687979221344), ('On', 0.11433522403240204)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C540" t="n">
+        <v>135</v>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>[('during', 0.19633565843105316), ('temperature', 0.18487057089805603), ('on', 0.18303291499614716), ('anode', 0.18250486254692078), ('using', 0.1823698729276657)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C541" t="n">
+        <v>136</v>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>[('an', 0.10490205138921738), ('7-5', 0.10330653190612793), ('the', 0.0946216732263565), ('White', 0.09397346526384354), ('University', 0.09166830778121948)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C542" t="n">
+        <v>137</v>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>[(':', 0.11805909872055054), ('Sulfaquinoxaline', 0.10296136140823364), ('Festivals', 0.09500250965356827), ('Ranking', 0.09468187391757965), ('Thirty-three', 0.09284665435552597)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C543" t="n">
+        <v>138</v>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>[('2.1.6', 0.10061778128147125), ('Somersaults', 0.09766600281000137), ('his', 0.09530956298112869), ('Improvements', 0.09530361741781235), ('Advantages', 0.09191236644983292)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C544" t="n">
+        <v>139</v>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>[('In', 0.1301170140504837), ('Deterrent', 0.08985324949026108), ('The', 0.08441977202892303), ('in', 0.08088114857673645), ('Meats', 0.08053833991289139)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C545" t="n">
+        <v>140</v>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>[('million', 0.1368589997291565), ('per', 0.1244974285364151), ('percent', 0.11559008806943893), ('billion', 0.11267270147800446), ('fiscal', 0.11129183322191238)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C546" t="n">
+        <v>141</v>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>[('Advantages', 0.08817598223686218), ('Parichy-Hamm', 0.0822363868355751), ('Astronomy', 0.0819382295012474), ('Vacations', 0.07935918122529984), ('Status-roles', 0.07489506155252457)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C547" t="n">
+        <v>142</v>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>[('Trim-your-own-franks', 0.09996666759252548), ('Condensation', 0.08931851387023926), ('Garments', 0.08731114864349365), ('Parichy-Hamm', 0.07603614032268524), ('Thirty-six', 0.07363253831863403)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C548" t="n">
+        <v>143</v>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>[('many', 0.1296394169330597), ('different', 0.12820667028427124), ('times', 0.12214528024196625), ('French', 0.11967215687036514), ('various', 0.11852990835905075)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C549" t="n">
+        <v>144</v>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>[('La', 0.17945151031017303), ('p.', 0.16283443570137024), ('Pathology', 0.16112971305847168), ('San', 0.16056974232196808), ('D.', 0.157757967710495)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C550" t="n">
+        <v>145</v>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>[('an', 0.10901375859975815), ('Goddammit', 0.10127729922533035), ('Molding', 0.0921221673488617), ('Dairy', 0.09052976220846176), ('air', 0.08928500860929489)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C551" t="n">
+        <v>146</v>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>[('there', 0.108250193297863), ('these', 0.10668879747390747), ('other', 0.10491659492254257), ('Plants', 0.09930729120969772), ('Burke-Rostagno', 0.08926798403263092)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C552" t="n">
+        <v>147</v>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>[('Dairy', 0.09402857720851898), ('Trim-your-own-franks', 0.09050747007131577), ('Requirements', 0.08968377113342285), ('Status-roles', 0.08579131960868835), ('Thirty-three', 0.07942070066928864)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C553" t="n">
+        <v>148</v>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>[('going', 0.16034182906150818), ('wanted', 0.12779562175273895), ('trying', 0.12257255613803864), ('went', 0.12180688977241516), ('them', 0.12129656970500946)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C554" t="n">
+        <v>149</v>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>[('(', 0.09938453882932663), ('Subjects', 0.08829253166913986), ('Requirements', 0.08638601005077362), ('Secretion', 0.08485160768032074), (')', 0.08369971066713333)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C555" t="n">
+        <v>150</v>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>[('an', 0.18800197541713715), ('at', 0.11709596961736679), ('At', 0.10593292862176895), ('act', 0.10362762212753296), ('hour', 0.1004905104637146)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C556" t="n">
+        <v>151</v>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>[('Mr.', 0.11545585095882416), ('Mrs.', 0.09349393844604492), ('2.1.6', 0.08796064555644989), ('Subjects', 0.08677616715431213), ('Plants', 0.08154161274433136)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C557" t="n">
+        <v>152</v>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>[('Sanctions', 0.09740137308835983), ('Eligibility', 0.09470793604850769), ('P.S.', 0.09416615217924118), ('Undergraduates', 0.09386923164129257), ('Nightclubs', 0.09196965396404266)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C558" t="n">
+        <v>153</v>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>[('Festivals', 0.09350857883691788), ('5.4', 0.08898067474365234), ('Boonton', 0.08840087056159973), ('Subjects', 0.08772129565477371), ('Puerto', 0.08588819950819016)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C559" t="n">
+        <v>154</v>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>[('their', 0.1262577921152115), ('rather', 0.12426502257585526), ('not', 0.11601730436086655), ('they', 0.11341491341590881), ('ever', 0.1116681843996048)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C560" t="n">
+        <v>155</v>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>[('past', 0.1605856716632843), ('half', 0.15917493402957916), ('over', 0.1475851684808731), ('during', 0.1440533846616745), ('fiscal', 0.14061342179775238)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C561" t="n">
+        <v>156</v>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>[('at', 0.09442515671253204), ('Undergraduates', 0.09299583733081818), ('Requirements', 0.08829887211322784), ('Nightclubs', 0.08617151528596878), ('Festivals', 0.0849873274564743)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C562" t="n">
+        <v>157</v>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>[('Norms', 0.09866512566804886), ('Parichy-Hamm', 0.09691677987575531), ('Vacations', 0.09248355031013489), ('She', 0.08968759328126907), ('Status-roles', 0.0862310454249382)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C563" t="n">
+        <v>158</v>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>[('Seafood', 0.09935373812913895), ('Boonton', 0.08855602890253067), ('We', 0.08416642248630524), ('Thirty-four', 0.07418537139892578), ('Frame', 0.07316931337118149)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C564" t="n">
+        <v>159</v>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>[('on', 0.1609291285276413), ('manage', 0.13612690567970276), ('times', 0.13462917506694794), ('Cynical', 0.13389265537261963), ('anyways', 0.1337321549654007)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C565" t="n">
+        <v>160</v>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>[('Thyroglobulin', 0.1300603151321411), ('``', 0.12848101556301117), ('Legal', 0.11902221292257309), ('tumultuous', 0.11840356886386871), ('McCormack', 0.11475901305675507)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C566" t="n">
+        <v>161</v>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>[('Molding', 0.10563435405492783), ('Du', 0.1000986248254776), ('Burke-Rostagno', 0.09860391169786453), ('Advantages', 0.09770750999450684), ('States', 0.09766114503145218)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C567" t="n">
+        <v>162</v>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>[('under', 0.17454123497009277), ('committee', 0.1481553018093109), ('General', 0.14683495461940765), ('after', 0.14516669511795044), ('White', 0.14515942335128784)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C568" t="n">
+        <v>163</v>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>[('at', 0.14570218324661255), ('young', 0.1389576494693756), ('At', 0.12118890881538391), ('fellow', 0.12054366618394852), ('on', 0.11916346848011017)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C569" t="n">
+        <v>164</v>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>[('each', 0.1490650773048401), ('Saturday', 0.14815375208854675), ('floor', 0.14696672558784485), ('below', 0.14571279287338257), ('until', 0.144515722990036)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C570" t="n">
+        <v>165</v>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>[('Section', 0.15788346529006958), ('pursuant', 0.1458689570426941), ('name', 0.14046870172023773), ('image', 0.14006735384464264), ('Article', 0.13943177461624146)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C571" t="n">
+        <v>166</v>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>[('Angeles', 0.13215836882591248), ('12', 0.12951739132404327), ('Los', 0.12626664340496063), ('derived', 0.12331215292215347), ('1960', 0.1222933977842331)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C572" t="n">
+        <v>167</v>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>[('Poultry', 0.09932105988264084), ('?', 0.09862925112247467), ('friends', 0.09661192446947098), ('their', 0.09293024986982346), ('Ranking', 0.09207958728075027)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C573" t="n">
+        <v>168</v>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>[('2-3', 0.16909106075763702), ('beams', 0.14132635295391083), ('roof', 0.1307179182767868), ('Folding', 0.13042588531970978), ('anesthetic', 0.12904226779937744)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C574" t="n">
+        <v>169</v>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>[('Impersonal', 0.22148409485816956), ('new', 0.20917825400829315), ('such', 0.20848016440868378), ('Exactly', 0.20567931234836578), ("'mon", 0.20292527973651886)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C575" t="n">
+        <v>170</v>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>[('Norms', 0.10421842336654663), ('Thirty-three', 0.10150358080863953), ('Requirements', 0.0988883227109909), ('Improvements', 0.08912214636802673), ('Meats', 0.08880438655614853)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C576" t="n">
+        <v>171</v>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>[('Of', 0.16632141172885895), ('&amp;', 0.1443820744752884), ('--', 0.12140333652496338), ('Blasphemous', 0.11444386094808578), ('no-o', 0.11363643407821655)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C577" t="n">
+        <v>172</v>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>[("''", 0.1497039794921875), ('Dr.', 0.13653451204299927), ('``', 0.13450893759727478), ('E.', 0.11265882104635239), ('Deportees', 0.11255843937397003)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C578" t="n">
+        <v>173</v>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>[('example', 0.1671334207057953), ('are', 0.15554381906986237), ('shows', 0.1493428349494934), ('points', 0.14415928721427917), ('contains', 0.13752618432044983)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C579" t="n">
+        <v>174</v>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>[('days', 0.12581919133663177), ('best', 0.12024388462305069), ('years', 0.11392059177160263), ('It', 0.1060146689414978), ('was', 0.10379964113235474)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C580" t="n">
+        <v>175</v>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>[('recent', 0.1506582349538803), ('during', 0.14667312800884247), ('plus', 0.14054198563098907), ('For', 0.1381576955318451), ('social', 0.1378837376832962)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C581" t="n">
+        <v>176</v>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>[('Improvements', 0.09722504764795303), ('Sanctions', 0.09052692353725433), ('Subsystems', 0.07923133671283722), ('God', 0.07920437306165695), ('Your', 0.0785767212510109)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C582" t="n">
+        <v>177</v>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>[('Movies', 0.1010773554444313), ('Undergraduates', 0.09690467268228531), ('Parichy-Hamm', 0.0962987169623375), ('Thirty-six', 0.08783408254384995), ('Eligibility', 0.08478166908025742)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C583" t="n">
+        <v>178</v>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>[('Disadvantages', 0.16371499001979828), ('Sulfaquinoxaline', 0.14020834863185883), ('M-m-m', 0.13004235923290253), ('us', 0.11844203621149063), ('here', 0.11432375013828278)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C584" t="n">
+        <v>179</v>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>[('given', 0.10970035195350647), ('but', 0.10410308837890625), ('here', 0.10233549773693085), ('studied', 0.10158189386129379), ('policy', 0.09872470051050186)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C585" t="n">
+        <v>180</v>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>[('A.', 0.10833637416362762), ('H.', 0.105878084897995), ('7-5', 0.10425647348165512), ('Mrs.', 0.1017472967505455), ('J.', 0.10086346417665482)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C586" t="n">
+        <v>181</v>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>[('we', 0.16490134596824646), ('We', 0.16299037635326385), ('too', 0.14751537144184113), ("you've", 0.13386170566082), ('You', 0.13330207765102386)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C587" t="n">
+        <v>182</v>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>[('Vacations', 0.09714480489492416), ('hoaxes', 0.09503699839115143), ('Backbends', 0.0949581190943718), ('P.S.', 0.09427807480096817), ('Sanctions', 0.0905647948384285)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C588" t="n">
+        <v>183</v>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>[('yelped', 0.12012878060340881), ('have', 0.1122896671295166), ('recently', 0.11011096835136414), ('smiled', 0.10882162302732468), ('worked', 0.10784827917814255)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C589" t="n">
+        <v>184</v>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>[('Nightclubs', 0.10003632307052612), ('Sanctions', 0.0983530730009079), ('Vacations', 0.09453993290662766), ('Plants', 0.0926738753914833), ('up', 0.08730291575193405)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C590" t="n">
+        <v>185</v>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>[('Advantages', 0.0958077684044838), ('under', 0.09404635429382324), ('obtained', 0.09351900219917297), ('made', 0.09312206506729126), ('by', 0.09101495146751404)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C591" t="n">
+        <v>186</v>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>[('our', 0.22450488805770874), ('its', 0.21680890023708344), ('Centrally', 0.20891664922237396), ('Rheumatics', 0.20807872712612152), ('led', 0.2073889970779419)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C592" t="n">
+        <v>187</v>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>[('talk', 0.19194583594799042), ('uh-huh', 0.18893180787563324), ('Did', 0.1727721393108368), ('Are', 0.1699674427509308), ("Can't", 0.15945063531398773)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C593" t="n">
+        <v>188</v>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>[('during', 0.13162195682525635), ('increase', 0.11134683340787888), ('can', 0.11000725626945496), ('greater', 0.10882876068353653), ('from', 0.10868293792009354)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C594" t="n">
+        <v>189</v>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>[('Keerist', 0.10204469412565231), ('Goddammit', 0.09371978789567947), ('Frame', 0.09162577986717224), ('Ranking', 0.09016721695661545), ('Seafood', 0.0871400311589241)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C595" t="n">
+        <v>190</v>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>[('No', 0.18511426448822021), ('each', 0.17582397162914276), ('A', 0.17408163845539093), ('Our', 0.17195890843868256), ('What', 0.17179246246814728)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C596" t="n">
+        <v>191</v>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>[('--', 0.12233753502368927), ('schools', 0.10274860262870789), ('foreign', 0.10207502543926239), ('needs', 0.10194479674100876), ('public', 0.09955573081970215)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C597" t="n">
+        <v>192</v>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>[('at', 0.10313661396503448), ('Subsystems', 0.0973101556301117), ('Frame', 0.08534055203199387), ('Ronnel', 0.08486947417259216), ('Nightclubs', 0.08485615998506546)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C598" t="n">
+        <v>193</v>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>[('Parichy-Hamm', 0.1002037525177002), ('Nightclubs', 0.09604137390851974), ('Eligibility', 0.09468050301074982), ('Improvements', 0.08974804729223251), ('Secretion', 0.08372745662927628)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C599" t="n">
+        <v>194</v>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>[('I', 0.14533129334449768), ('Thomas', 0.13510333001613617), ('John', 0.13136319816112518), ('Mary', 0.13081374764442444), (':', 0.12981857359409332)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C600" t="n">
+        <v>195</v>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>[('for', 0.10134008526802063), ('two', 0.10077296197414398), ('Eligibility', 0.09631674736738205), ('other', 0.09609907865524292), ('particular', 0.0921223983168602)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C601" t="n">
+        <v>196</v>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>[('went', 0.1816154420375824), ('walked', 0.1661294400691986), ('saw', 0.15872058272361755), ('ran', 0.15847429633140564), ('together', 0.15440815687179565)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C602" t="n">
+        <v>197</v>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>[('--', 0.15687187016010284), ('At', 0.131911039352417), ('when', 0.13087297976016998), ('took', 0.12349727004766464), ('every', 0.11722433567047119)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C603" t="n">
+        <v>198</v>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>[('cannot', 0.09344775229692459), ('Proprietorship', 0.09104394912719727), ('Sanctions', 0.0906226858496666), ('not', 0.0900392085313797), ('Syllabification', 0.08803650736808777)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C604" t="n">
+        <v>199</v>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>[('then', 0.2088480442762375), ('until', 0.1614280492067337), ('hot', 0.1474410742521286), ('when', 0.14655156433582306), ('light', 0.132808655500412)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C605" t="n">
+        <v>200</v>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>[('color', 0.12079358845949173), ('surface', 0.09754353016614914), ('Advantages', 0.09479764848947525), ('Festivals', 0.0908728763461113), ('wide', 0.08840906620025635)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C606" t="n">
+        <v>201</v>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>[('Plot', 0.1178884506225586), ('St-story', 0.11500559747219086), ('Puppies', 0.1135648563504219), ('Blasphemous', 0.11245306581258774), ('Hyena', 0.11078117042779922)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C607" t="n">
+        <v>202</v>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>[('National', 0.1022210344672203), ('Syllabification', 0.09961871802806854), ('New', 0.09597253799438477), ('Vacations', 0.09237542748451233), ('interests', 0.09205266833305359)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C608" t="n">
+        <v>203</v>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>[('such', 0.11040430516004562), ('!', 0.10251723229885101), ('evidence', 0.10221224278211594), ('Boonton', 0.09882138669490814), ('fact', 0.09828518331050873)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C609" t="n">
+        <v>204</v>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>[('does', 0.15625232458114624), ('spirit', 0.153020977973938), ('provides', 0.1456131488084793), ('inner', 0.14312826097011566), ('clear', 0.14296658337116241)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C610" t="n">
+        <v>205</v>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>[('Secretion', 0.09913668036460876), ('7-5', 0.09403841197490692), ('Sanctions', 0.09316561371088028), ('another', 0.09197048842906952), ('hoaxes', 0.08928024023771286)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C611" t="n">
+        <v>206</v>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>[(')', 0.12901683151721954), ('David', 0.12654410302639008), ('Richard', 0.11986783146858215), ('Clark', 0.11387773603200912), ('Co.', 0.11057773977518082)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C612" t="n">
+        <v>207</v>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>[('you', 0.1283758580684662), ('difference', 0.12293379008769989), ('no', 0.1225837841629982), ('difficult', 0.11672908067703247), ('possible', 0.11328598856925964)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C613" t="n">
+        <v>208</v>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>[('A5', 0.0961635634303093), ('Syllabification', 0.0937826931476593), ('Festivals', 0.09258060157299042), ('Astronomy', 0.08551985025405884), ('Keerist', 0.08417399227619171)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C614" t="n">
+        <v>209</v>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>[('Improvements', 0.09982793033123016), ('Festivals', 0.09347973018884659), ('Deterrent', 0.09156675636768341), ('Thirty-three', 0.08936695754528046), ('7-5', 0.08335751295089722)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C615" t="n">
+        <v>210</v>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>[('himself', 0.10525114089250565), ('Meats', 0.0985911414027214), ('Keerist', 0.08836079388856888), ('Festivals', 0.08255936205387115), ('years', 0.08035009354352951)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C616" t="n">
+        <v>211</v>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>[('Keerist', 0.10458631068468094), ('Repayment', 0.0942888855934143), ('Festivals', 0.09346386790275574), ('Burke-Rostagno', 0.09175722301006317), ('There', 0.0743439793586731)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>212</v>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>[('greater', 0.13532860577106476), ('wage', 0.13493667542934418), ('its', 0.12574321031570435), ('cost', 0.12443969398736954), ('terms', 0.12438292056322098)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>213</v>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>[('up', 0.13709722459316254), ('after', 0.11710608750581741), ('over', 0.09328711777925491), ('Impatiently', 0.08922117948532104), ('has', 0.08746038377285004)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>214</v>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>[('they', 0.16578459739685059), ('the', 0.1542157083749771), ('just', 0.15105226635932922), ('he', 0.14846037328243256), ('whole', 0.14614319801330566)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>215</v>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>[('Parichy-Hamm', 0.09590616077184677), ('hoaxes', 0.089786596596241), ('Thirty-six', 0.07911992818117142), ('nor', 0.07643192261457443), ('Nightclubs', 0.07435393333435059)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>216</v>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>[('its', 0.10832367092370987), ('Keerist', 0.10527265071868896), ('Goddammit', 0.10152880102396011), ('2.1.6', 0.09986212849617004), ('Dairy', 0.08739028871059418)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>217</v>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>[('Status-roles', 0.09092370420694351), ('A', 0.09027732163667679), ('Improvements', 0.08301699161529541), ('Eligibility', 0.07081299275159836), ('Plants', 0.06562621891498566)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>218</v>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>[('Secretion', 0.09703338891267776), ('Subjects', 0.08676812797784805), ('their', 0.07998260855674744), ('Dairy', 0.07739470899105072), ('Sanctions', 0.07382651418447495)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>219</v>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>[('like', 0.09958778321743011), ('Thirty-four', 0.09489013254642487), ('Poultry', 0.09402618557214737), ('Somersaults', 0.09105010330677032), ('woman', 0.09103967994451523)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>220</v>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>[('about', 0.13382919132709503), ('Nuf', 0.13033461570739746), ('Kidnaper', 0.12215480208396912), ('pickoffs', 0.10659533739089966), ('Measuring', 0.1051429808139801)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>221</v>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>[('Nightclubs', 0.09851914644241333), ('Parichy-Hamm', 0.09142477810382843), ('Festivals', 0.09100571274757385), ('Status-roles', 0.08955784142017365), ('God', 0.08865316957235336)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>222</v>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>[('The', 0.1407645344734192), ('among', 0.13314387202262878), ('who', 0.1266857385635376), ('Union', 0.11926621198654175), ('With', 0.1151389330625534)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>223</v>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>[('most', 0.10595443844795227), ('one', 0.10542937368154526), ('many', 0.10496408492326736), ('are', 0.10070174932479858), ('Thirty-six', 0.09491531550884247)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>224</v>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>[('Status-roles', 0.09450894594192505), ('Seafood', 0.08961472660303116), ('course', 0.08624707162380219), ('Molding', 0.0858180969953537), ('this', 0.08289282768964767)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>225</v>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>[('who', 0.14519156515598297), ('been', 0.1364225149154663), ('never', 0.13592083752155304), ('when', 0.13569118082523346), ('was', 0.1352754384279251)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>226</v>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>[('took', 0.09893983602523804), ('Calves', 0.09385954588651657), ('all', 0.08750908821821213), ('have', 0.08749566227197647), ('Proprietorship', 0.08544635772705078)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>227</v>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>[('of', 0.16157405078411102), ('A5', 0.1539110690355301), ('against', 0.14956557750701904), ('hegemony', 0.14839020371437073), ('crossings', 0.14778883755207062)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>228</v>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>[('In', 0.1473909616470337), ('With', 0.1300014853477478), ('were', 0.12990440428256989), ('showed', 0.11633259803056717), ('because', 0.11320015788078308)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>229</v>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>[('John', 0.15030212700366974), ('Run-down', 0.1458912193775177), ('Steam', 0.1454095095396042), ('Impatiently', 0.14481042325496674), ('Conflict', 0.1442340761423111)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>230</v>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>[('the', 0.1679806113243103), ('.', 0.1660631000995636), ('picked', 0.1650228500366211), ('could', 0.1642046421766281), ('stared', 0.15427294373512268)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>231</v>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>[('Burke-Rostagno', 0.09668124467134476), ('more', 0.09557078033685684), ('2.1.6', 0.09181968122720718), ('Thirty-four', 0.0858997255563736), ('Deterrent', 0.0826912373304367)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>232</v>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>[('Proprietorship', 0.09913954883813858), ('or', 0.09380868822336197), ('hand', 0.09352412819862366), ('Astronomy', 0.09119109809398651), ('another', 0.09106048941612244)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C638" t="n">
+        <v>233</v>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>[('these', 0.10940763354301453), ('seem', 0.10393931716680527), ('may', 0.10300115495920181), (';', 0.09638237208127975), ('time', 0.09555067867040634)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C639" t="n">
+        <v>234</v>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>[('Movies', 0.10522526502609253), ('perhaps', 0.09550540894269943), ('Vacations', 0.09121754765510559), ('P.S.', 0.08798056840896606), ('Somersaults', 0.08693496882915497)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C640" t="n">
+        <v>235</v>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>[('horse', 0.1662096083164215), ('head', 0.14595165848731995), ('away', 0.14409057796001434), ("I'll", 0.14308109879493713), ('out', 0.142277792096138)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C641" t="n">
+        <v>236</v>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>[('girl', 0.1287628561258316), ('strong', 0.11434720456600189), ('bad', 0.11072733253240585), ('good', 0.1080336719751358), ('whose', 0.10759744048118591)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C642" t="n">
+        <v>237</v>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>[('Francisco', 0.15129488706588745), ('San', 0.14606888592243195), ('kitchen', 0.14208321273326874), ('York', 0.13389261066913605), ('Street', 0.13107536733150482)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C643" t="n">
+        <v>238</v>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>[('Keerist', 0.09788450598716736), ('Poultry', 0.09701178967952728), ("'", 0.09626789391040802), ('!', 0.09392131119966507), ('Meats', 0.09205541014671326)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C644" t="n">
+        <v>239</v>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>[('can', 0.11711767315864563), ('in', 0.10556048154830933), ('Calves', 0.09890991449356079), ('could', 0.09702848643064499), ('from', 0.09680547565221786)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C645" t="n">
+        <v>240</v>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>[('black', 0.1708013266324997), ('body', 0.1642753630876541), ('hair', 0.15423765778541565), ('face', 0.15246190130710602), ('His', 0.15213915705680847)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C646" t="n">
+        <v>241</v>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>[('Condensation', 0.09489904344081879), ('(', 0.09484752267599106), ('Thirty-six', 0.09475792944431305), ('Ranking', 0.09412017464637756), ('How', 0.09191448241472244)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C647" t="n">
+        <v>242</v>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>[('than', 0.1430596262216568), ('do', 0.1384291797876358), ('about', 0.12351004779338837), ('your', 0.11994078010320663), ('!', 0.11881484091281891)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C648" t="n">
+        <v>243</v>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>[('Months', 0.1110391616821289), ('Af', 0.10277197510004044), ('Plants', 0.09956713020801544), ('Keerist', 0.09847228229045868), (')', 0.09830015152692795)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>244</v>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>[('The', 0.12870705127716064), ('Plants', 0.09772904217243195), ('than', 0.09573200345039368), ('Status-roles', 0.0921231210231781), ('Frame', 0.09081810712814331)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C650" t="n">
+        <v>245</v>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>[('Thirty-six', 0.09644341468811035), ('Thirty-three', 0.09513077884912491), ('Sanctions', 0.09434817731380463), ('Softly', 0.09072385728359222), ('Deterrent', 0.08936496824026108)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>246</v>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>[('Island', 0.20778746902942657), ('Rhode', 0.19370152056217194), ('Association', 0.19327321648597717), ('Medical', 0.1925259232521057), ('Society', 0.18838323652744293)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>247</v>
+      </c>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>[('Advantages', 0.09775343537330627), ('Nightclubs', 0.09537340700626373), ('P.S.', 0.09450662136077881), ('Seafood', 0.09320567548274994), ('Garments', 0.09245677292346954)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>248</v>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>[('me', 0.11907213926315308), ('us', 0.1148577481508255), ('can', 0.10646197944879532), ('here', 0.10578455775976181), ('say', 0.10370757430791855)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>249</v>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>[('hole', 0.19667266309261322), ('liquid', 0.1943318396806717), ('wide', 0.18993103504180908), ('gathered', 0.18821097910404205), ('coat', 0.18735995888710022)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C655" t="n">
+        <v>250</v>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>[('about', 0.12073685973882675), ('says', 0.11676009744405746), ('according', 0.11562702059745789), ('school', 0.11079790443181992), ('age', 0.11071978509426117)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C656" t="n">
+        <v>251</v>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>[('other', 0.10649952292442322), ('Huddle', 0.10422100871801376), ('Fluorescence', 0.10359102487564087), ('elk', 0.10280930995941162), ('Nearing', 0.10156770795583725)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C657" t="n">
+        <v>252</v>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>[('eyes', 0.17518243193626404), ('and', 0.16510997712612152), ('friends', 0.1600157469511032), ('hair', 0.15896093845367432), ('husband', 0.1568049043416977)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C658" t="n">
+        <v>253</v>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>[('by', 0.1836046725511551), ('has', 0.15516139566898346), ('described', 0.15178672969341278), ('was', 0.14967390894889832), ('By', 0.14165867865085602)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C659" t="n">
+        <v>254</v>
+      </c>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>[('Thirty-three', 0.10143545269966125), ('Somersaults', 0.09759997576475143), ('at', 0.09247496724128723), ('Undergraduates', 0.08988498896360397), ('Secretion', 0.08485358953475952)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C660" t="n">
+        <v>255</v>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>[('Meats', 0.09937408566474915), ('Parichy-Hamm', 0.09879110753536224), ('development', 0.09751488268375397), ('program', 0.08786173164844513), ('Poultry', 0.08590660244226456)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C661" t="n">
+        <v>256</v>
+      </c>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>[('hand', 0.2705095410346985), ('side', 0.22364458441734314), ('them', 0.21286077797412872), ('still', 0.1993192881345749), ('off', 0.19913816452026367)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C662" t="n">
+        <v>257</v>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>[('Single-color', 0.10164850205183029), ('bogies', 0.10042042285203934), ('Of', 0.1004042699933052), ('such', 0.10037658363580704), ('Mikoyan', 0.096861831843853)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C663" t="n">
+        <v>258</v>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>[('Subsystems', 0.09855574369430542), ('Condensation', 0.09025099128484726), ('Poultry', 0.08497432619333267), ('Meats', 0.08249147981405258), ('7-5', 0.06758146733045578)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C664" t="n">
+        <v>259</v>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>[('Boonton', 0.10183621942996979), ('Keerist', 0.10167194157838821), ('Astronomy', 0.09423290938138962), ('Improvements', 0.09004350751638412), ('than', 0.08566256612539291)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C665" t="n">
+        <v>260</v>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>[('can', 0.13358506560325623), ('so', 0.11988344043493271), ('As', 0.11642777174711227), ('into', 0.11596740782260895), ('When', 0.10957165062427521)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C666" t="n">
+        <v>261</v>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>[('Somersaults', 0.09723064303398132), ('Syllabification', 0.09339147806167603), ('Months', 0.08666753023862839), ('Of', 0.0835615023970604), ('Festivals', 0.08110632002353668)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C667" t="n">
+        <v>262</v>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>[('looking', 0.1396530568599701), ("it's", 0.13222524523735046), ('he', 0.1320052146911621), ('was', 0.13093118369579315), ('were', 0.12852461636066437)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C668" t="n">
+        <v>263</v>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>[('Status-roles', 0.0942612811923027), ('Plants', 0.08405973762273788), ('Subjects', 0.0814431831240654), ('Garments', 0.07781697809696198), ('Keerist', 0.07491383701562881)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C669" t="n">
+        <v>264</v>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>[('Keerist', 0.0990668535232544), ('Proprietorship', 0.0970614030957222), ('Goddammit', 0.09112396836280823), ('Boonton', 0.08539065718650818), ('Thirty-four', 0.08515673875808716)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C670" t="n">
+        <v>265</v>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>[('War', 0.12929143011569977), ('Sulfaquinoxaline', 0.12870557606220245), ('companies', 0.12601174414157867), ('stations', 0.12503010034561157), ('above', 0.12461771816015244)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C671" t="n">
+        <v>266</v>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>[('laid', 0.16940122842788696), ('pocket', 0.16436202824115753), ('running', 0.1601785272359848), ('brought', 0.15805567800998688), ('bedroom', 0.15642060339450836)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C672" t="n">
+        <v>267</v>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>[('are', 0.1375536173582077), ('were', 0.133708655834198), ('far', 0.12083592265844345), ('temperature', 0.1197483167052269), ('shown', 0.11761511117219925)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C673" t="n">
+        <v>268</v>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>[('Calves', 0.09135531634092331), ('Dairy', 0.08795581012964249), ('--', 0.0846165344119072), ('Backbends', 0.08246386796236038), ('7-5', 0.08147767186164856)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C674" t="n">
+        <v>269</v>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>[('year', 0.18127958476543427), ('week', 0.1799633949995041), ('day', 0.16602785885334015), ('during', 0.16481678187847137), ('period', 0.16261635720729828)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C675" t="n">
+        <v>270</v>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>[('Thirty-three', 0.09456643462181091), ('Vacations', 0.08689337968826294), ('Backbends', 0.08632688969373703), ('Subjects', 0.08016886562108994), ('Calves', 0.07863298803567886)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C676" t="n">
+        <v>271</v>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>[('is', 0.12419098615646362), ('can', 0.09747370332479477), ('Deterrent', 0.09498792886734009), ('Improvements', 0.0949501320719719), ('Softly', 0.0894135981798172)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C677" t="n">
+        <v>272</v>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>[(';', 0.10569684952497482), ('Sulfaquinoxaline', 0.10126759111881256), ('and', 0.0999271348118782), ('Burke-Rostagno', 0.09989532083272934), ('Vacations', 0.09752890467643738)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C678" t="n">
+        <v>273</v>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>[('its', 0.10615265369415283), ('program', 0.10192897170782089), ('industrial', 0.09451405704021454), ('support', 0.09425119310617447), ('new', 0.0915314182639122)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C679" t="n">
+        <v>274</v>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>[('lips', 0.19904471933841705), ('face', 0.1975860893726349), ('head', 0.19505396485328674), ('mouth', 0.18581296503543854), ('chest', 0.1735454499721527)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C680" t="n">
+        <v>275</v>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>[('been', 0.13712260127067566), ('years', 0.12024102360010147), ('Sulfaquinoxaline', 0.11793451011180878), ('people', 0.10577873885631561), ('Disadvantages', 0.1049714908003807)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C681" t="n">
+        <v>276</v>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>[('if', 0.2162678986787796), ('example', 0.20999029278755188), ('aid', 0.20544201135635376), ('though', 0.20283354818820953), ('care', 0.2020421177148819)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C682" t="n">
+        <v>277</v>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>[('Hyena', 0.15998320281505585), ('?', 0.15730594098567963), ('Secesh', 0.15599511563777924), ('whom', 0.15516149997711182), ('Comment', 0.14595292508602142)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C683" t="n">
+        <v>278</v>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>[('or', 0.09921969473361969), ('Syllabification', 0.09266349673271179), (';', 0.0849272757768631), ('hoaxes', 0.0743936225771904), ('Thirty-six', 0.0727076530456543)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C684" t="n">
+        <v>279</v>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>[('where', 0.1501326560974121), ('Mr.', 0.14276167750358582), ('that', 0.14046436548233032), ('why', 0.13310764729976654), ('And', 0.12581929564476013)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C685" t="n">
+        <v>280</v>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>[('The', 0.18655972182750702), ('announced', 0.16141442954540253), ('York', 0.15908558666706085), ('described', 0.15764346718788147), ('Daily', 0.15659154951572418)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C686" t="n">
+        <v>281</v>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>[('Broiled', 0.14981135725975037), ('from', 0.13724100589752197), ('attempt', 0.13464286923408508), ('find', 0.1339414119720459), ('its', 0.13358457386493683)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C687" t="n">
+        <v>282</v>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>[('She', 0.11744943261146545), ('But', 0.10926800221204758), ('most', 0.1051320806145668), ('more', 0.10308155417442322), ('He', 0.10184372961521149)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C688" t="n">
+        <v>283</v>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>[('even', 0.1494980901479721), ('unusual', 0.14356784522533417), ('poet', 0.13892611861228943), ('More', 0.1378040462732315), ('achieved', 0.13739313185214996)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C689" t="n">
+        <v>284</v>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>[('On', 0.18648125231266022), ('side', 0.17782819271087646), ('With', 0.15828868746757507), ('while', 0.15519772469997406), ('front', 0.15506668388843536)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C690" t="n">
+        <v>285</v>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>[('Deterrent', 0.08866234123706818), ('Norms', 0.08823135495185852), ('2.1.6', 0.0872570127248764), ('Repayment', 0.08183809369802475), ('Astronomy', 0.08179225772619247)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C691" t="n">
+        <v>286</v>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>[('Proprietorship', 0.09778797626495361), ('Movies', 0.0915587842464447), ('Boonton', 0.08946561813354492), ('?', 0.08761712908744812), ('Frame', 0.07903196662664413)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C692" t="n">
+        <v>287</v>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>[('2-3', 0.1644987314939499), ('or', 0.1536848396062851), ('machines', 0.1489521563053131), ('self-deluded', 0.1451479196548462), ('Pressures', 0.14304301142692566)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C693" t="n">
+        <v>288</v>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>[('will', 0.12763068079948425), ('various', 0.11718561500310898), ('countries', 0.1109406054019928), ('cannot', 0.109876349568367), ('forces', 0.10965674370527267)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C694" t="n">
+        <v>289</v>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>[('program', 0.09552354365587234), ('Act', 0.09456919133663177), ('early', 0.09334476292133331), ('National', 0.09178322553634644), ('Corps', 0.08814370632171631)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C695" t="n">
+        <v>290</v>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>[('when', 0.14955301582813263), ('Mercer', 0.13913382589817047), ('Lewis', 0.13161395490169525), ('slowly', 0.12864552438259125), ('Roberts', 0.12662212550640106)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C696" t="n">
+        <v>291</v>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>[('too', 0.22443129122257233), ('easier', 0.2055530548095703), ('resistance', 0.19749295711517334), ('harder', 0.1940309703350067), ('difficult', 0.19350819289684296)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C697" t="n">
+        <v>292</v>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>[('arms', 0.18578743934631348), ('chair', 0.18003635108470917), ('room', 0.17835649847984314), ('his', 0.17605513334274292), ('hands', 0.1740848869085312)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C698" t="n">
+        <v>293</v>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>[('seen', 0.12981849908828735), ('very', 0.128235325217247), ('noted', 0.11938630789518356), ('fact', 0.1152697280049324), ('evidence', 0.11428182572126389)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C699" t="n">
+        <v>294</v>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>[('taking', 0.19286732375621796), ('outside', 0.18914298713207245), ('inside', 0.18540771305561066), ('standing', 0.18317238986492157), ('books', 0.18235741555690765)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C700" t="n">
+        <v>295</v>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>[('family', 0.17072321474552155), ('work', 0.17044106125831604), ('job', 0.1625393033027649), ('wife', 0.16052275896072388), ('far', 0.1600492298603058)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C701" t="n">
+        <v>296</v>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>[('summer', 0.13220424950122833), ('North', 0.12604857981204987), ('spring', 0.12293104082345963), ('century', 0.1213039979338646), ('nineteenth', 0.11874417215585709)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C702" t="n">
+        <v>297</v>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>[('so', 0.12609168887138367), ('since', 0.11619435995817184), ('during', 0.1028633788228035), ('between', 0.09986767917871475), ('radiation', 0.09744715690612793)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C703" t="n">
+        <v>298</v>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>[('Norms', 0.1571592390537262), ('could', 0.13868993520736694), ('would', 0.13851450383663177), ('At', 0.13612593710422516), ('did', 0.13558277487754822)]</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>brown_300</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Word2Vec&lt;vocab=56057, vector_size=300, alpha=0.025&gt;</t>
+        </is>
+      </c>
+      <c r="C704" t="n">
+        <v>299</v>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>[('?', 0.14935912191867828), ('should', 0.11879798769950867), ("'", 0.11692408472299576), ('on', 0.11636120826005936), ('In', 0.10262835025787354)]</t>
         </is>
       </c>
     </row>
